--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76493ADA-92C1-4416-8A4E-FF3F9462304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52436123-2EF9-42CE-9C6B-E3B0C3670D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1859">
   <si>
     <t>name</t>
   </si>
@@ -5414,9 +5414,6 @@
   </si>
   <si>
     <t>Yahoo</t>
-  </si>
-  <si>
-    <t>WICHNFCN.FGI</t>
   </si>
   <si>
     <t>FVSJ.F</t>
@@ -5677,7 +5674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5701,12 +5698,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5729,10 +5720,22 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5775,18 +5778,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5813,7 +5804,7 @@
     <sortCondition ref="B1:B800"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{5A90A855-91ED-41CE-B4B6-41473BC05892}" name="name"/>
     <tableColumn id="3" xr3:uid="{A6DB99C2-C65F-4DE9-8199-32DE52DA7D1D}" name="url"/>
   </tableColumns>
@@ -5844,19 +5835,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="B2:H76" totalsRowShown="0" headerRowDxfId="12" dataDxfId="1">
-  <autoFilter ref="B2:H76" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D76">
-    <sortCondition ref="B2:B76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G75" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G75" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
+    <sortCondition ref="A1:A75"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15836,10 +15827,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
-  <dimension ref="B1:I76"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15855,1280 +15846,1272 @@
     <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1707</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1640</v>
+        <v>1706</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1754</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1602</v>
+        <v>1786</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1795</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1707</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>1855</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1755</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>1855</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1760</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F53" s="2" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>1855</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="2" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="2" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="2" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>1856</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>1797</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>1794</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>1796</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1763</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1764</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>1767</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>1857</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>1808</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>1812</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>1857</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="11" t="s">
+      <c r="G65" s="7" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>1770</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>1816</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1772</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>1821</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="2" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="2" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="2" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="2" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="2" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="2" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G63" s="2" t="s">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="2" t="s">
-        <v>1705</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>1857</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1714</v>
+      </c>
       <c r="B67" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E67" s="2" t="s">
+    </row>
+    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H67" s="7" t="s">
+      <c r="B68" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1722</v>
+      </c>
       <c r="B71" s="2" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>1780</v>
+        <v>1719</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="2" t="s">
+        <v>1722</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H71" s="7" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>1722</v>
+      </c>
       <c r="B72" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="2" t="s">
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="B73" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="2" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>1781</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1737</v>
+      </c>
       <c r="B75" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C76" s="2" t="s">
         <v>1744</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>1782</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>1737</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{C722861A-D6BF-4893-904C-B556340630D1}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{A5BE3912-3EE5-4E07-A81D-16DC8440690E}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{D88E19A2-F2C5-4D39-8DC8-95CE96121C5F}"/>
-    <hyperlink ref="H11" r:id="rId4" xr:uid="{F27C4498-A571-4DC3-ACA7-49B7CFE9EF5E}"/>
-    <hyperlink ref="H10" r:id="rId5" xr:uid="{05FDA187-45DF-44F1-BC85-4D9B944E6E29}"/>
-    <hyperlink ref="H15" r:id="rId6" xr:uid="{1F1CE052-CF38-425C-AB47-203668515EFB}"/>
-    <hyperlink ref="H16" r:id="rId7" xr:uid="{1B908796-8802-41F8-B16C-ECF22B71C05E}"/>
-    <hyperlink ref="H19" r:id="rId8" xr:uid="{CF823E6A-A828-44AF-9DFE-EDEAB8BA00C4}"/>
-    <hyperlink ref="H20" r:id="rId9" xr:uid="{1CF01752-0DBE-4DCC-BACA-838790FD96C7}"/>
-    <hyperlink ref="H23" r:id="rId10" xr:uid="{0D3D4A6D-9999-4B5D-A86B-07DC2ABFD9CE}"/>
-    <hyperlink ref="H27" r:id="rId11" xr:uid="{14EA5D06-9DFD-4C39-9B37-89323E9DA61B}"/>
-    <hyperlink ref="H28" r:id="rId12" xr:uid="{D97EA7E7-21D9-4DE8-9ED9-EF5F29F28935}"/>
-    <hyperlink ref="H29" r:id="rId13" xr:uid="{57AFDC35-7229-4D00-8DE2-A88659DAB003}"/>
-    <hyperlink ref="H30" r:id="rId14" xr:uid="{0404BD88-D58D-485A-9A9B-A180FA0B04AE}"/>
-    <hyperlink ref="H31" r:id="rId15" xr:uid="{1F8332A0-2C05-4784-A3C9-BD08152A70A2}"/>
-    <hyperlink ref="H33" r:id="rId16" xr:uid="{7ECEDC97-9BB7-46DB-BE8E-CFA77F46C785}"/>
-    <hyperlink ref="H35" r:id="rId17" xr:uid="{F58FBB36-FE9A-4641-A756-1434C414D163}"/>
-    <hyperlink ref="H38" r:id="rId18" xr:uid="{6F170A47-01E7-458E-979F-FA4A3DF35115}"/>
-    <hyperlink ref="H39" r:id="rId19" xr:uid="{E6D56F5B-AAD4-4429-B597-22E2BF909C3C}"/>
-    <hyperlink ref="H40" r:id="rId20" xr:uid="{68F50D44-26C3-4C97-B605-3852AB7AFC6D}"/>
-    <hyperlink ref="H41" r:id="rId21" xr:uid="{11A57259-221F-4B44-9DFE-B8BDCD19AC52}"/>
-    <hyperlink ref="H43" r:id="rId22" xr:uid="{AAA38C3D-55FC-4BFD-B94D-5093E5F71C9A}"/>
-    <hyperlink ref="H44" r:id="rId23" xr:uid="{30612F49-EB60-4CFE-BDE1-8539D2C7C873}"/>
-    <hyperlink ref="H45" r:id="rId24" xr:uid="{B1C6B871-FB77-48E8-8461-66FD63EE3C0D}"/>
-    <hyperlink ref="H47" r:id="rId25" xr:uid="{5EF9DE92-77BC-4144-BBE0-F41B0113DDEA}"/>
-    <hyperlink ref="H48" r:id="rId26" xr:uid="{24F25F9D-B8F1-425B-A4DA-D0DBED539190}"/>
-    <hyperlink ref="H49" r:id="rId27" xr:uid="{3AD9C00E-5019-4891-9F7D-168FCC917103}"/>
-    <hyperlink ref="H51" r:id="rId28" xr:uid="{E8B66385-2326-4192-9943-A396ED69E8EA}"/>
-    <hyperlink ref="H53" r:id="rId29" xr:uid="{98F41FAA-7CB6-4891-9510-7710EAB468F1}"/>
-    <hyperlink ref="H67" r:id="rId30" xr:uid="{E0B66F0B-D5B3-4DD1-B040-A87A65F9299E}"/>
-    <hyperlink ref="H71" r:id="rId31" xr:uid="{967024C2-3FE6-49B6-8CED-8A6472E0293B}"/>
-    <hyperlink ref="H72" r:id="rId32" xr:uid="{9B335A01-CEB6-4AC0-BC3F-D4994D2BBCF2}"/>
-    <hyperlink ref="H75" r:id="rId33" xr:uid="{853E0A3D-83F6-4892-96B8-EEDBABB09668}"/>
-    <hyperlink ref="H26" r:id="rId34" xr:uid="{3E3A89B5-D783-48C1-8DB2-1863C43A94FB}"/>
-    <hyperlink ref="H66" r:id="rId35" xr:uid="{42412DCF-8DAF-4BB9-9C84-4936032EFE65}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{C722861A-D6BF-4893-904C-B556340630D1}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{A5BE3912-3EE5-4E07-A81D-16DC8440690E}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{D88E19A2-F2C5-4D39-8DC8-95CE96121C5F}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{F27C4498-A571-4DC3-ACA7-49B7CFE9EF5E}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{05FDA187-45DF-44F1-BC85-4D9B944E6E29}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{1F1CE052-CF38-425C-AB47-203668515EFB}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{1B908796-8802-41F8-B16C-ECF22B71C05E}"/>
+    <hyperlink ref="G18" r:id="rId8" xr:uid="{CF823E6A-A828-44AF-9DFE-EDEAB8BA00C4}"/>
+    <hyperlink ref="G19" r:id="rId9" xr:uid="{1CF01752-0DBE-4DCC-BACA-838790FD96C7}"/>
+    <hyperlink ref="G22" r:id="rId10" xr:uid="{0D3D4A6D-9999-4B5D-A86B-07DC2ABFD9CE}"/>
+    <hyperlink ref="G26" r:id="rId11" xr:uid="{14EA5D06-9DFD-4C39-9B37-89323E9DA61B}"/>
+    <hyperlink ref="G27" r:id="rId12" xr:uid="{D97EA7E7-21D9-4DE8-9ED9-EF5F29F28935}"/>
+    <hyperlink ref="G28" r:id="rId13" xr:uid="{57AFDC35-7229-4D00-8DE2-A88659DAB003}"/>
+    <hyperlink ref="G29" r:id="rId14" xr:uid="{0404BD88-D58D-485A-9A9B-A180FA0B04AE}"/>
+    <hyperlink ref="G30" r:id="rId15" xr:uid="{1F8332A0-2C05-4784-A3C9-BD08152A70A2}"/>
+    <hyperlink ref="G32" r:id="rId16" xr:uid="{7ECEDC97-9BB7-46DB-BE8E-CFA77F46C785}"/>
+    <hyperlink ref="G34" r:id="rId17" xr:uid="{F58FBB36-FE9A-4641-A756-1434C414D163}"/>
+    <hyperlink ref="G37" r:id="rId18" xr:uid="{6F170A47-01E7-458E-979F-FA4A3DF35115}"/>
+    <hyperlink ref="G38" r:id="rId19" xr:uid="{E6D56F5B-AAD4-4429-B597-22E2BF909C3C}"/>
+    <hyperlink ref="G39" r:id="rId20" xr:uid="{68F50D44-26C3-4C97-B605-3852AB7AFC6D}"/>
+    <hyperlink ref="G40" r:id="rId21" xr:uid="{11A57259-221F-4B44-9DFE-B8BDCD19AC52}"/>
+    <hyperlink ref="G42" r:id="rId22" xr:uid="{AAA38C3D-55FC-4BFD-B94D-5093E5F71C9A}"/>
+    <hyperlink ref="G43" r:id="rId23" xr:uid="{30612F49-EB60-4CFE-BDE1-8539D2C7C873}"/>
+    <hyperlink ref="G44" r:id="rId24" xr:uid="{B1C6B871-FB77-48E8-8461-66FD63EE3C0D}"/>
+    <hyperlink ref="G46" r:id="rId25" xr:uid="{5EF9DE92-77BC-4144-BBE0-F41B0113DDEA}"/>
+    <hyperlink ref="G47" r:id="rId26" xr:uid="{24F25F9D-B8F1-425B-A4DA-D0DBED539190}"/>
+    <hyperlink ref="G48" r:id="rId27" xr:uid="{3AD9C00E-5019-4891-9F7D-168FCC917103}"/>
+    <hyperlink ref="G50" r:id="rId28" xr:uid="{E8B66385-2326-4192-9943-A396ED69E8EA}"/>
+    <hyperlink ref="G52" r:id="rId29" xr:uid="{98F41FAA-7CB6-4891-9510-7710EAB468F1}"/>
+    <hyperlink ref="G66" r:id="rId30" xr:uid="{E0B66F0B-D5B3-4DD1-B040-A87A65F9299E}"/>
+    <hyperlink ref="G70" r:id="rId31" xr:uid="{967024C2-3FE6-49B6-8CED-8A6472E0293B}"/>
+    <hyperlink ref="G71" r:id="rId32" xr:uid="{9B335A01-CEB6-4AC0-BC3F-D4994D2BBCF2}"/>
+    <hyperlink ref="G74" r:id="rId33" xr:uid="{853E0A3D-83F6-4892-96B8-EEDBABB09668}"/>
+    <hyperlink ref="G25" r:id="rId34" xr:uid="{3E3A89B5-D783-48C1-8DB2-1863C43A94FB}"/>
+    <hyperlink ref="G65" r:id="rId35" xr:uid="{42412DCF-8DAF-4BB9-9C84-4936032EFE65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52436123-2EF9-42CE-9C6B-E3B0C3670D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCCDBF1-CC38-4993-B9A0-A7DA9D29BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5602,7 +5602,7 @@
     <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/FTSE%20Developed%20Europe%20ex%20UK.csv</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/FTSE%20Vietnam%20Dati%20Storici.csv</t>
+    <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/FTSE%20Vietnam%20Historical%20Data.csv</t>
   </si>
 </sst>
 </file>
@@ -15829,8 +15829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G75"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17111,12 +17111,11 @@
     <hyperlink ref="G71" r:id="rId32" xr:uid="{9B335A01-CEB6-4AC0-BC3F-D4994D2BBCF2}"/>
     <hyperlink ref="G74" r:id="rId33" xr:uid="{853E0A3D-83F6-4892-96B8-EEDBABB09668}"/>
     <hyperlink ref="G25" r:id="rId34" xr:uid="{3E3A89B5-D783-48C1-8DB2-1863C43A94FB}"/>
-    <hyperlink ref="G65" r:id="rId35" xr:uid="{42412DCF-8DAF-4BB9-9C84-4936032EFE65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCCDBF1-CC38-4993-B9A0-A7DA9D29BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57914DC8-226A-498D-9048-FAF0BED31B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="1859">
   <si>
     <t>name</t>
   </si>
@@ -15829,8 +15829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16908,9 +16908,6 @@
       <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
         <v>1705</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>1856</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>1858</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57914DC8-226A-498D-9048-FAF0BED31B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362F50E-ABB7-4AEF-8AF8-46F23C9D8C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1860">
   <si>
     <t>name</t>
   </si>
@@ -5603,6 +5603,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/FTSE%20Vietnam%20Historical%20Data.csv</t>
+  </si>
+  <si>
+    <t>INVESTIN</t>
   </si>
 </sst>
 </file>
@@ -5836,7 +5839,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G75" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G75" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
+  <autoFilter ref="A1:G75" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="INVESTING"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
     <sortCondition ref="A1:A75"/>
   </sortState>
@@ -15829,8 +15838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15869,7 +15878,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1707</v>
       </c>
@@ -15889,7 +15898,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1707</v>
       </c>
@@ -15904,7 +15913,7 @@
       <c r="G3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1726</v>
       </c>
@@ -15925,7 +15934,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1683</v>
       </c>
@@ -15946,7 +15955,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1761</v>
       </c>
@@ -15968,7 +15977,7 @@
       <c r="G6" s="8"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1651</v>
       </c>
@@ -15987,7 +15996,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16000,7 +16009,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16019,7 +16028,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1669</v>
       </c>
@@ -16037,7 +16046,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16046,7 +16055,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16064,7 +16073,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16073,7 +16082,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1609</v>
       </c>
@@ -16093,7 +16102,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16111,7 +16120,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16125,7 +16134,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16137,7 +16146,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1732</v>
       </c>
@@ -16157,7 +16166,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16177,7 +16186,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16191,7 +16200,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16217,13 +16226,13 @@
         <v>1793</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16243,7 +16252,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16283,7 +16292,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1741</v>
       </c>
@@ -16303,7 +16312,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1685</v>
       </c>
@@ -16323,7 +16332,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1751</v>
       </c>
@@ -16343,7 +16352,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1661</v>
       </c>
@@ -16361,7 +16370,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16379,7 +16388,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16391,7 +16400,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16409,7 +16418,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16421,7 +16430,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16439,7 +16448,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16448,7 +16457,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16457,7 +16466,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1753</v>
       </c>
@@ -16475,7 +16484,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1667</v>
       </c>
@@ -16495,7 +16504,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1696</v>
       </c>
@@ -16513,7 +16522,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16531,7 +16540,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16543,7 +16552,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1665</v>
       </c>
@@ -16563,7 +16572,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1726</v>
       </c>
@@ -16583,7 +16592,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16601,7 +16610,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16610,7 +16619,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1680</v>
       </c>
@@ -16628,7 +16637,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1712</v>
       </c>
@@ -16646,7 +16655,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1663</v>
       </c>
@@ -16664,7 +16673,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1701</v>
       </c>
@@ -16682,7 +16691,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16700,7 +16709,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16712,7 +16721,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1703</v>
       </c>
@@ -16730,7 +16739,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16748,7 +16757,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16760,7 +16769,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16772,7 +16781,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1747</v>
       </c>
@@ -16790,7 +16799,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16802,7 +16811,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16814,7 +16823,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16826,7 +16835,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16838,7 +16847,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>452</v>
       </c>
@@ -16856,7 +16865,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>452</v>
       </c>
@@ -16874,7 +16883,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>452</v>
       </c>
@@ -16886,7 +16895,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>452</v>
       </c>
@@ -16898,7 +16907,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1705</v>
       </c>
@@ -16909,11 +16918,14 @@
       <c r="D65" s="2" t="s">
         <v>1705</v>
       </c>
+      <c r="E65" s="2" t="s">
+        <v>1859</v>
+      </c>
       <c r="G65" s="7" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16933,7 +16945,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16947,7 +16959,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16961,7 +16973,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16975,7 +16987,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1724</v>
       </c>
@@ -16995,7 +17007,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17013,7 +17025,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17025,7 +17037,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17039,7 +17051,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17057,7 +17069,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1737</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362F50E-ABB7-4AEF-8AF8-46F23C9D8C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA090688-16B8-4DBC-8296-D5A1D67B91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5839,13 +5839,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G75" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G75" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="INVESTING"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G75" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
     <sortCondition ref="A1:A75"/>
   </sortState>
@@ -15838,8 +15832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15878,7 +15872,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1707</v>
       </c>
@@ -15898,7 +15892,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1707</v>
       </c>
@@ -15913,7 +15907,7 @@
       <c r="G3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1726</v>
       </c>
@@ -15934,7 +15928,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1683</v>
       </c>
@@ -15955,7 +15949,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1761</v>
       </c>
@@ -15977,7 +15971,7 @@
       <c r="G6" s="8"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1651</v>
       </c>
@@ -15996,7 +15990,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16009,7 +16003,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16028,7 +16022,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1669</v>
       </c>
@@ -16046,7 +16040,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16055,7 +16049,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16073,7 +16067,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16082,7 +16076,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1609</v>
       </c>
@@ -16102,7 +16096,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16120,7 +16114,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16134,7 +16128,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16146,7 +16140,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1732</v>
       </c>
@@ -16166,7 +16160,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16186,7 +16180,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16200,7 +16194,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16232,7 +16226,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16252,7 +16246,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16292,7 +16286,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1741</v>
       </c>
@@ -16312,7 +16306,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1685</v>
       </c>
@@ -16332,7 +16326,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1751</v>
       </c>
@@ -16352,7 +16346,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1661</v>
       </c>
@@ -16370,7 +16364,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16388,7 +16382,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16400,7 +16394,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16418,7 +16412,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16430,7 +16424,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16448,7 +16442,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16457,7 +16451,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16466,7 +16460,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1753</v>
       </c>
@@ -16484,7 +16478,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1667</v>
       </c>
@@ -16504,7 +16498,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1696</v>
       </c>
@@ -16522,7 +16516,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16540,7 +16534,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16552,7 +16546,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1665</v>
       </c>
@@ -16572,7 +16566,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1726</v>
       </c>
@@ -16592,7 +16586,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16610,7 +16604,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16619,7 +16613,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1680</v>
       </c>
@@ -16637,7 +16631,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1712</v>
       </c>
@@ -16655,7 +16649,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1663</v>
       </c>
@@ -16673,7 +16667,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1701</v>
       </c>
@@ -16691,7 +16685,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16709,7 +16703,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16721,7 +16715,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1703</v>
       </c>
@@ -16739,7 +16733,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16757,7 +16751,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16769,7 +16763,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16781,7 +16775,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1747</v>
       </c>
@@ -16799,7 +16793,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16811,7 +16805,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16823,7 +16817,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16835,7 +16829,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16847,7 +16841,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>452</v>
       </c>
@@ -16865,7 +16859,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>452</v>
       </c>
@@ -16883,7 +16877,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>452</v>
       </c>
@@ -16895,7 +16889,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>452</v>
       </c>
@@ -16907,7 +16901,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1705</v>
       </c>
@@ -16925,7 +16919,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16945,7 +16939,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16959,7 +16953,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16973,7 +16967,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16987,7 +16981,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1724</v>
       </c>
@@ -17007,7 +17001,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17025,7 +17019,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17037,7 +17031,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17051,7 +17045,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17069,7 +17063,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1737</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA090688-16B8-4DBC-8296-D5A1D67B91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57C28FC-556C-4495-A2BC-598DB5C147F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5599,13 +5599,13 @@
     <t>INVESTING</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/FTSE%20Developed%20Europe%20ex%20UK.csv</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/FTSE%20Vietnam%20Historical%20Data.csv</t>
   </si>
   <si>
     <t>INVESTIN</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/FTSE%20Developed%20Europe%20ex%20UK%20Historical%20Data.csv</t>
   </si>
 </sst>
 </file>
@@ -5839,7 +5839,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G75" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G75" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
+  <autoFilter ref="A1:G75" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="INVESTING"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
     <sortCondition ref="A1:A75"/>
   </sortState>
@@ -15832,8 +15838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15872,7 +15878,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1707</v>
       </c>
@@ -15892,7 +15898,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1707</v>
       </c>
@@ -15907,7 +15913,7 @@
       <c r="G3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1726</v>
       </c>
@@ -15928,7 +15934,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1683</v>
       </c>
@@ -15949,7 +15955,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1761</v>
       </c>
@@ -15971,7 +15977,7 @@
       <c r="G6" s="8"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1651</v>
       </c>
@@ -15990,7 +15996,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16003,7 +16009,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16022,7 +16028,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1669</v>
       </c>
@@ -16040,7 +16046,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16049,7 +16055,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16067,7 +16073,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16076,7 +16082,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1609</v>
       </c>
@@ -16096,7 +16102,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16114,7 +16120,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16128,7 +16134,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16140,7 +16146,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1732</v>
       </c>
@@ -16160,7 +16166,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16180,7 +16186,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16194,7 +16200,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16206,7 +16212,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1749</v>
       </c>
@@ -16220,13 +16226,13 @@
         <v>1793</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16246,7 +16252,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16283,10 +16289,10 @@
         <v>1856</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1741</v>
       </c>
@@ -16306,7 +16312,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1685</v>
       </c>
@@ -16326,7 +16332,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1751</v>
       </c>
@@ -16346,7 +16352,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1661</v>
       </c>
@@ -16364,7 +16370,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16382,7 +16388,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16394,7 +16400,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16412,7 +16418,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16424,7 +16430,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16442,7 +16448,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16451,7 +16457,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16460,7 +16466,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1753</v>
       </c>
@@ -16478,7 +16484,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1667</v>
       </c>
@@ -16498,7 +16504,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1696</v>
       </c>
@@ -16516,7 +16522,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16534,7 +16540,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16546,7 +16552,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1665</v>
       </c>
@@ -16566,7 +16572,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1726</v>
       </c>
@@ -16586,7 +16592,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16604,7 +16610,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16613,7 +16619,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1680</v>
       </c>
@@ -16631,7 +16637,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1712</v>
       </c>
@@ -16649,7 +16655,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1663</v>
       </c>
@@ -16667,7 +16673,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1701</v>
       </c>
@@ -16685,7 +16691,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16703,7 +16709,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16715,7 +16721,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1703</v>
       </c>
@@ -16733,7 +16739,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16751,7 +16757,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16763,7 +16769,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16775,7 +16781,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1747</v>
       </c>
@@ -16793,7 +16799,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16805,7 +16811,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16817,7 +16823,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16829,7 +16835,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16841,7 +16847,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>452</v>
       </c>
@@ -16859,7 +16865,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>452</v>
       </c>
@@ -16877,7 +16883,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>452</v>
       </c>
@@ -16889,7 +16895,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>452</v>
       </c>
@@ -16901,7 +16907,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1705</v>
       </c>
@@ -16913,13 +16919,13 @@
         <v>1705</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16939,7 +16945,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16953,7 +16959,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16967,7 +16973,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16981,7 +16987,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1724</v>
       </c>
@@ -17001,7 +17007,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17019,7 +17025,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17031,7 +17037,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17045,7 +17051,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17063,7 +17069,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17113,12 +17119,11 @@
     <hyperlink ref="G70" r:id="rId31" xr:uid="{967024C2-3FE6-49B6-8CED-8A6472E0293B}"/>
     <hyperlink ref="G71" r:id="rId32" xr:uid="{9B335A01-CEB6-4AC0-BC3F-D4994D2BBCF2}"/>
     <hyperlink ref="G74" r:id="rId33" xr:uid="{853E0A3D-83F6-4892-96B8-EEDBABB09668}"/>
-    <hyperlink ref="G25" r:id="rId34" xr:uid="{3E3A89B5-D783-48C1-8DB2-1863C43A94FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Originale!$A$1:$C$800</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -15833,7 +15832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hitachipowergrids-my.sharepoint.com/personal/nico_giangregorio_hitachienergy_com/Documents/Documents/99 Personal/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24DC4BD-6E7F-4A7E-8C1E-C50B918D9872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{F24DC4BD-6E7F-4A7E-8C1E-C50B918D9872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3C8E53-0F0C-48EC-B847-0D45478B8BA5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="1866">
   <si>
     <t>name</t>
   </si>
@@ -5612,6 +5612,18 @@
   </si>
   <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/703634%20-%20MSCI%20Switzerland%2020_35%20Index%20%20-%20FULL%20-%202008-05-30%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>EM SMALL CAP</t>
+  </si>
+  <si>
+    <t>SPDR MSCI Emerging Markets Small Cap UCITS ETF</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655061%20-%20MSCI%20EM%20(Emerging%20Markets)%20Small%20Cap%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>India 25,83 , Taiwan 18,87 , Corea 13,41 , Cina 12,28 , Sudafrica 4,03 , Brasile 3,68 , Arabia Saudita 3,40 , Malesia 2,47 , Tailandia 2,37 , Turchia 1,93 , Indonesia 1,73 , Polonia 1,62 , Messico 1,43 , Kuwait 1,28 , UAE 1,25 , Filippine 0,79 , Grecia 0,79 , Cile 0,76 , Germania 0,69 , Qatar 0,69 , Colombia 0,26 , Ungheria 0,14 , Egitto 0,13 , Altri 0,19</t>
   </si>
 </sst>
 </file>
@@ -5838,8 +5850,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G77" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G77" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G78" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G78" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
     <sortCondition ref="A1:A75"/>
   </sortState>
@@ -15830,10 +15842,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17102,6 +17114,26 @@
       <c r="C77" s="3"/>
       <c r="D77" s="2" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>1864</v>
       </c>
     </row>
   </sheetData>
@@ -17141,11 +17173,12 @@
     <hyperlink ref="G71" r:id="rId32" xr:uid="{9B335A01-CEB6-4AC0-BC3F-D4994D2BBCF2}"/>
     <hyperlink ref="G74" r:id="rId33" xr:uid="{853E0A3D-83F6-4892-96B8-EEDBABB09668}"/>
     <hyperlink ref="G76" r:id="rId34" xr:uid="{19BA0435-91D0-49BC-9656-FB7EC98EE0E6}"/>
+    <hyperlink ref="G78" r:id="rId35" xr:uid="{D049DB7A-F7EF-462E-BC8F-783F813A2489}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hitachipowergrids-my.sharepoint.com/personal/nico_giangregorio_hitachienergy_com/Documents/Documents/99 Personal/finance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F24DC4BD-6E7F-4A7E-8C1E-C50B918D9872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3C8E53-0F0C-48EC-B847-0D45478B8BA5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCE3AB8-2E73-440B-8C57-D729CA2E98C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Originale!$A$1:$C$800</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="1866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1870">
   <si>
     <t>name</t>
   </si>
@@ -5624,6 +5624,18 @@
   </si>
   <si>
     <t>India 25,83 , Taiwan 18,87 , Corea 13,41 , Cina 12,28 , Sudafrica 4,03 , Brasile 3,68 , Arabia Saudita 3,40 , Malesia 2,47 , Tailandia 2,37 , Turchia 1,93 , Indonesia 1,73 , Polonia 1,62 , Messico 1,43 , Kuwait 1,28 , UAE 1,25 , Filippine 0,79 , Grecia 0,79 , Cile 0,76 , Germania 0,69 , Qatar 0,69 , Colombia 0,26 , Ungheria 0,14 , Egitto 0,13 , Altri 0,19</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>Indice IQ12260</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/gold/IQ12260.csv</t>
   </si>
 </sst>
 </file>
@@ -5850,8 +5862,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G78" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G78" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G79" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G79" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
     <sortCondition ref="A1:A75"/>
   </sortState>
@@ -15842,10 +15854,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17134,6 +17146,23 @@
       </c>
       <c r="G78" s="7" t="s">
         <v>1864</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>1869</v>
       </c>
     </row>
   </sheetData>
@@ -17174,11 +17203,12 @@
     <hyperlink ref="G74" r:id="rId33" xr:uid="{853E0A3D-83F6-4892-96B8-EEDBABB09668}"/>
     <hyperlink ref="G76" r:id="rId34" xr:uid="{19BA0435-91D0-49BC-9656-FB7EC98EE0E6}"/>
     <hyperlink ref="G78" r:id="rId35" xr:uid="{D049DB7A-F7EF-462E-BC8F-783F813A2489}"/>
+    <hyperlink ref="G79" r:id="rId36" xr:uid="{14AEC803-0DCA-4AF9-B580-36C74BB588A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCE3AB8-2E73-440B-8C57-D729CA2E98C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547C96FF-DABE-4DFE-831F-3D5FCF558E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1872">
   <si>
     <t>name</t>
   </si>
@@ -5636,6 +5636,12 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/gold/IQ12260.csv</t>
+  </si>
+  <si>
+    <t>HONG KONG</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/934400%20-%20MSCI%20Hong%20Kong%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-11-03%20%20-%20Monthly.xlsx</t>
   </si>
 </sst>
 </file>
@@ -5862,8 +5868,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G79" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G79" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G80" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G80" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
     <sortCondition ref="A1:A75"/>
   </sortState>
@@ -15854,10 +15860,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17163,6 +17169,21 @@
       </c>
       <c r="G79" s="7" t="s">
         <v>1869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>1871</v>
       </c>
     </row>
   </sheetData>
@@ -17204,11 +17225,12 @@
     <hyperlink ref="G76" r:id="rId34" xr:uid="{19BA0435-91D0-49BC-9656-FB7EC98EE0E6}"/>
     <hyperlink ref="G78" r:id="rId35" xr:uid="{D049DB7A-F7EF-462E-BC8F-783F813A2489}"/>
     <hyperlink ref="G79" r:id="rId36" xr:uid="{14AEC803-0DCA-4AF9-B580-36C74BB588A1}"/>
+    <hyperlink ref="G80" r:id="rId37" xr:uid="{E13FE73D-133B-42C8-89EF-15EE75971845}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547C96FF-DABE-4DFE-831F-3D5FCF558E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3BD6AA-3EDD-4DBB-9558-ACE0E524ED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5425,9 +5425,6 @@
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/302400%20-%20MSCI%20China%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/728368%20-%20MSCI%20Korea%2020_35%20Index%20%20-%20FULL%20-%202014-02-28%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/700098%20-%20MSCI%20EM%20Eastern%20Europe%20ex%20Russia%20Index%20%20-%20FULL%20-%202000-12-29%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
   </si>
   <si>
@@ -5642,6 +5639,9 @@
   </si>
   <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/934400%20-%20MSCI%20Hong%20Kong%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-11-03%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/941000%20-%20MSCI%20Korea%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-11-03%20%20-%20Monthly.xlsx</t>
   </si>
 </sst>
 </file>
@@ -15862,8 +15862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15893,7 +15893,7 @@
         <v>1784</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1795</v>
@@ -15916,7 +15916,7 @@
         <v>1786</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>1788</v>
@@ -15951,7 +15951,7 @@
         <v>1787</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>1789</v>
@@ -15972,7 +15972,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>1790</v>
@@ -15993,7 +15993,7 @@
         <v>1791</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1796</v>
@@ -16013,7 +16013,7 @@
         <v>398</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>1794</v>
@@ -16045,7 +16045,7 @@
         <v>894</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>1798</v>
@@ -16064,7 +16064,7 @@
         <v>890</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>1797</v>
@@ -16091,10 +16091,10 @@
         <v>912</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1799</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -16120,10 +16120,10 @@
         <v>1792</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -16135,13 +16135,13 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -16155,7 +16155,7 @@
         <v>1764</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -16167,7 +16167,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16184,10 +16184,10 @@
         <v>1732</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16204,10 +16204,10 @@
         <v>1621</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -16218,7 +16218,7 @@
         <v>1733</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>1621</v>
@@ -16250,10 +16250,10 @@
         <v>1793</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -16267,13 +16267,13 @@
         <v>1768</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16287,13 +16287,13 @@
         <v>1769</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16307,13 +16307,13 @@
         <v>1658</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16327,13 +16327,13 @@
         <v>1770</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -16347,13 +16347,13 @@
         <v>1771</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16367,13 +16367,13 @@
         <v>1772</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -16388,10 +16388,10 @@
         <v>902</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -16406,10 +16406,10 @@
         <v>908</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -16436,10 +16436,10 @@
         <v>910</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -16466,10 +16466,10 @@
         <v>416</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -16499,13 +16499,13 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16519,13 +16519,13 @@
         <v>1773</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -16537,13 +16537,13 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -16558,10 +16558,10 @@
         <v>920</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -16587,13 +16587,13 @@
         <v>1774</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16607,13 +16607,13 @@
         <v>1775</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -16625,13 +16625,13 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -16655,10 +16655,10 @@
         <v>442</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -16670,13 +16670,13 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -16691,10 +16691,10 @@
         <v>444</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -16706,13 +16706,13 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>1841</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -16727,10 +16727,10 @@
         <v>942</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -16757,10 +16757,10 @@
         <v>946</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -16775,10 +16775,10 @@
         <v>1654</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -16814,13 +16814,13 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -16832,7 +16832,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -16844,7 +16844,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -16868,7 +16868,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -16880,13 +16880,13 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -16901,10 +16901,10 @@
         <v>452</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -16943,10 +16943,10 @@
         <v>1705</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>1855</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16963,10 +16963,10 @@
         <v>1714</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -17025,10 +17025,10 @@
         <v>1724</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -17043,10 +17043,10 @@
         <v>1722</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -17087,10 +17087,10 @@
         <v>1737</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -17112,22 +17112,22 @@
         <v>448</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="2" t="s">
         <v>448</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="2" t="s">
@@ -17136,54 +17136,54 @@
     </row>
     <row r="78" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>1862</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>1863</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>1865</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>1862</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="G79" s="7" t="s">
         <v>1868</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>1866</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>1870</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>1871</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3BD6AA-3EDD-4DBB-9558-ACE0E524ED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6372B-58A2-4F1D-894A-AAFE6691BAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5533,9 +5533,6 @@
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/991400%20-%20MSCI%20Pacific%20ex%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/720236%20-%20MSCI%20Saudi%20Arabia%2020_35%20Index%20%20-%20FULL%20-%202014-08-29%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/998100%20-%20MSCI%20Singapore%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
   </si>
   <si>
@@ -5642,6 +5639,9 @@
   </si>
   <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/941000%20-%20MSCI%20Korea%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-11-03%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>^TASI.SR</t>
   </si>
 </sst>
 </file>
@@ -15862,8 +15862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15893,7 +15893,7 @@
         <v>1784</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1795</v>
@@ -15916,7 +15916,7 @@
         <v>1786</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>1788</v>
@@ -15951,7 +15951,7 @@
         <v>1787</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>1789</v>
@@ -15972,7 +15972,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>1790</v>
@@ -15993,7 +15993,7 @@
         <v>1791</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1796</v>
@@ -16013,7 +16013,7 @@
         <v>398</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>1794</v>
@@ -16045,7 +16045,7 @@
         <v>894</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>1798</v>
@@ -16064,7 +16064,7 @@
         <v>890</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>1797</v>
@@ -16091,10 +16091,10 @@
         <v>912</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -16120,7 +16120,7 @@
         <v>1792</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>1799</v>
@@ -16138,7 +16138,7 @@
         <v>1801</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>1800</v>
@@ -16184,7 +16184,7 @@
         <v>1732</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>1802</v>
@@ -16204,7 +16204,7 @@
         <v>1621</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>1803</v>
@@ -16218,7 +16218,7 @@
         <v>1733</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>1621</v>
@@ -16250,7 +16250,7 @@
         <v>1793</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>1804</v>
@@ -16270,7 +16270,7 @@
         <v>1805</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1807</v>
@@ -16290,7 +16290,7 @@
         <v>1806</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1808</v>
@@ -16307,13 +16307,13 @@
         <v>1658</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16330,7 +16330,7 @@
         <v>1813</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>1810</v>
@@ -16350,7 +16350,7 @@
         <v>1814</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>1811</v>
@@ -16370,7 +16370,7 @@
         <v>1818</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>1812</v>
@@ -16388,7 +16388,7 @@
         <v>902</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>1819</v>
@@ -16406,7 +16406,7 @@
         <v>908</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>1824</v>
@@ -16436,7 +16436,7 @@
         <v>910</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>1825</v>
@@ -16466,7 +16466,7 @@
         <v>416</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>1826</v>
@@ -16502,7 +16502,7 @@
         <v>1815</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>1827</v>
@@ -16522,7 +16522,7 @@
         <v>1816</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>1828</v>
@@ -16540,7 +16540,7 @@
         <v>1817</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>1829</v>
@@ -16558,7 +16558,7 @@
         <v>920</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>1830</v>
@@ -16590,7 +16590,7 @@
         <v>1820</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>1833</v>
@@ -16610,7 +16610,7 @@
         <v>1821</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>1834</v>
@@ -16628,11 +16628,12 @@
         <v>1822</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>1835</v>
-      </c>
+        <v>1851</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -16655,10 +16656,10 @@
         <v>442</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -16673,10 +16674,10 @@
         <v>1823</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -16691,10 +16692,10 @@
         <v>444</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -16706,13 +16707,13 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>1840</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -16727,10 +16728,10 @@
         <v>942</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -16757,10 +16758,10 @@
         <v>946</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -16775,7 +16776,7 @@
         <v>1654</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>1809</v>
@@ -16817,10 +16818,10 @@
         <v>1831</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -16883,10 +16884,10 @@
         <v>1832</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -16901,10 +16902,10 @@
         <v>452</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -16943,10 +16944,10 @@
         <v>1705</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>1854</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -16963,10 +16964,10 @@
         <v>1714</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -17025,10 +17026,10 @@
         <v>1724</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -17043,10 +17044,10 @@
         <v>1722</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -17087,10 +17088,10 @@
         <v>1737</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -17112,22 +17113,22 @@
         <v>448</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="2" t="s">
         <v>448</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="2" t="s">
@@ -17136,54 +17137,54 @@
     </row>
     <row r="78" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>1862</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>1864</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="G79" s="7" t="s">
         <v>1867</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>1869</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>1870</v>
       </c>
     </row>
   </sheetData>
@@ -17212,25 +17213,24 @@
     <hyperlink ref="G40" r:id="rId21" xr:uid="{11A57259-221F-4B44-9DFE-B8BDCD19AC52}"/>
     <hyperlink ref="G42" r:id="rId22" xr:uid="{AAA38C3D-55FC-4BFD-B94D-5093E5F71C9A}"/>
     <hyperlink ref="G43" r:id="rId23" xr:uid="{30612F49-EB60-4CFE-BDE1-8539D2C7C873}"/>
-    <hyperlink ref="G44" r:id="rId24" xr:uid="{B1C6B871-FB77-48E8-8461-66FD63EE3C0D}"/>
-    <hyperlink ref="G46" r:id="rId25" xr:uid="{5EF9DE92-77BC-4144-BBE0-F41B0113DDEA}"/>
-    <hyperlink ref="G47" r:id="rId26" xr:uid="{24F25F9D-B8F1-425B-A4DA-D0DBED539190}"/>
-    <hyperlink ref="G48" r:id="rId27" xr:uid="{3AD9C00E-5019-4891-9F7D-168FCC917103}"/>
-    <hyperlink ref="G50" r:id="rId28" xr:uid="{E8B66385-2326-4192-9943-A396ED69E8EA}"/>
-    <hyperlink ref="G52" r:id="rId29" xr:uid="{98F41FAA-7CB6-4891-9510-7710EAB468F1}"/>
-    <hyperlink ref="G66" r:id="rId30" xr:uid="{E0B66F0B-D5B3-4DD1-B040-A87A65F9299E}"/>
-    <hyperlink ref="G70" r:id="rId31" xr:uid="{967024C2-3FE6-49B6-8CED-8A6472E0293B}"/>
-    <hyperlink ref="G71" r:id="rId32" xr:uid="{9B335A01-CEB6-4AC0-BC3F-D4994D2BBCF2}"/>
-    <hyperlink ref="G74" r:id="rId33" xr:uid="{853E0A3D-83F6-4892-96B8-EEDBABB09668}"/>
-    <hyperlink ref="G76" r:id="rId34" xr:uid="{19BA0435-91D0-49BC-9656-FB7EC98EE0E6}"/>
-    <hyperlink ref="G78" r:id="rId35" xr:uid="{D049DB7A-F7EF-462E-BC8F-783F813A2489}"/>
-    <hyperlink ref="G79" r:id="rId36" xr:uid="{14AEC803-0DCA-4AF9-B580-36C74BB588A1}"/>
-    <hyperlink ref="G80" r:id="rId37" xr:uid="{E13FE73D-133B-42C8-89EF-15EE75971845}"/>
+    <hyperlink ref="G46" r:id="rId24" xr:uid="{5EF9DE92-77BC-4144-BBE0-F41B0113DDEA}"/>
+    <hyperlink ref="G47" r:id="rId25" xr:uid="{24F25F9D-B8F1-425B-A4DA-D0DBED539190}"/>
+    <hyperlink ref="G48" r:id="rId26" xr:uid="{3AD9C00E-5019-4891-9F7D-168FCC917103}"/>
+    <hyperlink ref="G50" r:id="rId27" xr:uid="{E8B66385-2326-4192-9943-A396ED69E8EA}"/>
+    <hyperlink ref="G52" r:id="rId28" xr:uid="{98F41FAA-7CB6-4891-9510-7710EAB468F1}"/>
+    <hyperlink ref="G66" r:id="rId29" xr:uid="{E0B66F0B-D5B3-4DD1-B040-A87A65F9299E}"/>
+    <hyperlink ref="G70" r:id="rId30" xr:uid="{967024C2-3FE6-49B6-8CED-8A6472E0293B}"/>
+    <hyperlink ref="G71" r:id="rId31" xr:uid="{9B335A01-CEB6-4AC0-BC3F-D4994D2BBCF2}"/>
+    <hyperlink ref="G74" r:id="rId32" xr:uid="{853E0A3D-83F6-4892-96B8-EEDBABB09668}"/>
+    <hyperlink ref="G76" r:id="rId33" xr:uid="{19BA0435-91D0-49BC-9656-FB7EC98EE0E6}"/>
+    <hyperlink ref="G78" r:id="rId34" xr:uid="{D049DB7A-F7EF-462E-BC8F-783F813A2489}"/>
+    <hyperlink ref="G79" r:id="rId35" xr:uid="{14AEC803-0DCA-4AF9-B580-36C74BB588A1}"/>
+    <hyperlink ref="G80" r:id="rId36" xr:uid="{E13FE73D-133B-42C8-89EF-15EE75971845}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6372B-58A2-4F1D-894A-AAFE6691BAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D661D4-7C89-42A4-81FB-D0F83FAA43F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15862,8 +15862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16628,7 +16628,7 @@
         <v>1822</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>1871</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D661D4-7C89-42A4-81FB-D0F83FAA43F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E70A3E-6766-4607-989E-168BF80E9230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E70A3E-6766-4607-989E-168BF80E9230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE9002-C06A-4E99-A8B4-04905916DAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Originale" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="1910">
   <si>
     <t>name</t>
   </si>
@@ -5642,6 +5642,120 @@
   </si>
   <si>
     <t>^TASI.SR</t>
+  </si>
+  <si>
+    <t>Original source</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/700211</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/899903</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/899800</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/912400</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/302400</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/718708</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/941000</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/700098</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/713021</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/664220</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/891800</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/106233</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/892200</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/655042</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/930000</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/935600</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/105767</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/939200</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/106218</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/127273</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/105768</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/848400</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/990700</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/991400</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/998100</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/971000</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/972400</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/105769</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/915800</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/979200</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/990100</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/106332</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/991000</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/106230</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/703634</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/655061</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/934400</t>
   </si>
 </sst>
 </file>
@@ -5745,7 +5859,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5837,7 +5954,7 @@
     <sortCondition ref="A1:A800"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{5A90A855-91ED-41CE-B4B6-41473BC05892}" name="name"/>
     <tableColumn id="3" xr3:uid="{A6DB99C2-C65F-4DE9-8199-32DE52DA7D1D}" name="url"/>
   </tableColumns>
@@ -5857,30 +5974,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}" name="Table1" displayName="Table1" ref="B2:C30" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}" name="Table1" displayName="Table1" ref="B2:C30" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="B2:C30" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2DEF44DB-B91A-4361-87EC-E5D8D821409D}" name="Aree" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{8FBA11E1-52C6-43A5-A4B9-0B712AC388F0}" name="Note" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{2DEF44DB-B91A-4361-87EC-E5D8D821409D}" name="Aree" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8FBA11E1-52C6-43A5-A4B9-0B712AC388F0}" name="Note" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:G80" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G80" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:H80" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H80" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
     <sortCondition ref="A1:A75"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{89FD6C47-21B3-47AF-97FD-B2BF9E03DF02}" name="Original source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6177,14 +6295,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1783</v>
       </c>
@@ -6195,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6206,7 +6324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6217,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6228,7 +6346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6239,7 +6357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6250,7 +6368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6261,7 +6379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6272,7 +6390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6283,7 +6401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6294,7 +6412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6305,7 +6423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6316,7 +6434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6327,7 +6445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6338,7 +6456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6349,7 +6467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6360,7 +6478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6371,7 +6489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6382,7 +6500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6393,7 +6511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6404,7 +6522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6415,7 +6533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6426,7 +6544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6437,7 +6555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6448,7 +6566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6459,7 +6577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6470,7 +6588,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6481,7 +6599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6492,7 +6610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6503,7 +6621,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6514,7 +6632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6525,7 +6643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6536,7 +6654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6547,7 +6665,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6558,7 +6676,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6569,7 +6687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6580,7 +6698,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6591,7 +6709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6602,7 +6720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6613,7 +6731,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6624,7 +6742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6635,7 +6753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6646,7 +6764,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6657,7 +6775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6668,7 +6786,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6679,7 +6797,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6690,7 +6808,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6701,7 +6819,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6712,7 +6830,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6723,7 +6841,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6734,7 +6852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6745,7 +6863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6756,7 +6874,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6767,7 +6885,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6778,7 +6896,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6789,7 +6907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6800,7 +6918,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6811,7 +6929,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6822,7 +6940,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6833,7 +6951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6844,7 +6962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6855,7 +6973,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6866,7 +6984,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6877,7 +6995,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6888,7 +7006,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6899,7 +7017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6910,7 +7028,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6921,7 +7039,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6932,7 +7050,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6943,7 +7061,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6954,7 +7072,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6965,7 +7083,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6976,7 +7094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6987,7 +7105,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6998,7 +7116,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7009,7 +7127,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7020,7 +7138,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7031,7 +7149,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7042,7 +7160,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7053,7 +7171,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7064,7 +7182,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7075,7 +7193,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7086,7 +7204,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7097,7 +7215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7108,7 +7226,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7119,7 +7237,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7130,7 +7248,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7141,7 +7259,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7152,7 +7270,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7163,7 +7281,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7174,7 +7292,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7185,7 +7303,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7196,7 +7314,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7207,7 +7325,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7218,7 +7336,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7229,7 +7347,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7240,7 +7358,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7251,7 +7369,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7262,7 +7380,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7273,7 +7391,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7284,7 +7402,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7295,7 +7413,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7306,7 +7424,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7317,7 +7435,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7328,7 +7446,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7339,7 +7457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7350,7 +7468,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7361,7 +7479,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7372,7 +7490,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7383,7 +7501,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7394,7 +7512,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7405,7 +7523,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7416,7 +7534,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7427,7 +7545,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7438,7 +7556,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7449,7 +7567,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7460,7 +7578,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7471,7 +7589,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7482,7 +7600,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7493,7 +7611,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7504,7 +7622,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7515,7 +7633,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7526,7 +7644,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7537,7 +7655,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7548,7 +7666,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7559,7 +7677,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7570,7 +7688,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7581,7 +7699,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7592,7 +7710,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7603,7 +7721,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7614,7 +7732,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7625,7 +7743,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7636,7 +7754,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7647,7 +7765,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7658,7 +7776,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7669,7 +7787,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7680,7 +7798,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7691,7 +7809,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7702,7 +7820,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7713,7 +7831,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7724,7 +7842,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7735,7 +7853,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7746,7 +7864,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7757,7 +7875,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7768,7 +7886,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7779,7 +7897,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7790,7 +7908,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7801,7 +7919,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7812,7 +7930,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7823,7 +7941,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7834,7 +7952,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7845,7 +7963,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7856,7 +7974,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7867,7 +7985,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7878,7 +7996,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7889,7 +8007,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7900,7 +8018,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7911,7 +8029,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7922,7 +8040,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7933,7 +8051,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7944,7 +8062,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7955,7 +8073,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7966,7 +8084,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7977,7 +8095,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7988,7 +8106,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7999,7 +8117,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8010,7 +8128,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8021,7 +8139,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8032,7 +8150,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8043,7 +8161,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8054,7 +8172,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8065,7 +8183,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8076,7 +8194,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8087,7 +8205,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8098,7 +8216,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8109,7 +8227,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8120,7 +8238,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8131,7 +8249,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8142,7 +8260,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8153,7 +8271,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8164,7 +8282,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8175,7 +8293,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8186,7 +8304,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8197,7 +8315,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8208,7 +8326,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8219,7 +8337,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8230,7 +8348,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8241,7 +8359,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8252,7 +8370,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8263,7 +8381,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8274,7 +8392,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8285,7 +8403,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8296,7 +8414,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8307,7 +8425,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8318,7 +8436,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8329,7 +8447,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8340,7 +8458,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8351,7 +8469,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8362,7 +8480,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8373,7 +8491,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8384,7 +8502,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8395,7 +8513,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8406,7 +8524,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8417,7 +8535,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8428,7 +8546,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8439,7 +8557,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8450,7 +8568,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8461,7 +8579,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8472,7 +8590,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8483,7 +8601,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8494,7 +8612,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8505,7 +8623,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8516,7 +8634,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8527,7 +8645,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -8538,7 +8656,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -8549,7 +8667,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -8560,7 +8678,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8571,7 +8689,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8582,7 +8700,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8593,7 +8711,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8604,7 +8722,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -8615,7 +8733,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -8626,7 +8744,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -8637,7 +8755,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -8648,7 +8766,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -8659,7 +8777,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -8670,7 +8788,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -8681,7 +8799,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -8692,7 +8810,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -8703,7 +8821,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -8714,7 +8832,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -8725,7 +8843,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -8736,7 +8854,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -8747,7 +8865,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8758,7 +8876,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8769,7 +8887,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8780,7 +8898,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8791,7 +8909,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8802,7 +8920,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8813,7 +8931,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8824,7 +8942,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8835,7 +8953,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8846,7 +8964,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8857,7 +8975,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8868,7 +8986,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -8879,7 +8997,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -8890,7 +9008,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8901,7 +9019,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8912,7 +9030,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8923,7 +9041,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8934,7 +9052,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -8945,7 +9063,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8956,7 +9074,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8967,7 +9085,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8978,7 +9096,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8989,7 +9107,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -9000,7 +9118,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -9011,7 +9129,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -9022,7 +9140,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -9033,7 +9151,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -9044,7 +9162,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -9055,7 +9173,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -9066,7 +9184,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -9077,7 +9195,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -9088,7 +9206,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -9099,7 +9217,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -9110,7 +9228,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -9121,7 +9239,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -9132,7 +9250,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9143,7 +9261,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9154,7 +9272,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9165,7 +9283,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9176,7 +9294,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -9187,7 +9305,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -9198,7 +9316,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -9209,7 +9327,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -9220,7 +9338,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -9231,7 +9349,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -9242,7 +9360,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -9253,7 +9371,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -9264,7 +9382,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -9275,7 +9393,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -9286,7 +9404,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -9297,7 +9415,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -9308,7 +9426,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -9319,7 +9437,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -9330,7 +9448,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -9341,7 +9459,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -9352,7 +9470,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -9363,7 +9481,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -9374,7 +9492,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -9385,7 +9503,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -9396,7 +9514,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -9407,7 +9525,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9418,7 +9536,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9429,7 +9547,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9440,7 +9558,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9451,7 +9569,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9462,7 +9580,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -9473,7 +9591,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -9484,7 +9602,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -9495,7 +9613,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -9506,7 +9624,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -9517,7 +9635,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -9528,7 +9646,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -9539,7 +9657,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -9550,7 +9668,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -9561,7 +9679,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -9572,7 +9690,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -9583,7 +9701,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -9594,7 +9712,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -9605,7 +9723,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -9616,7 +9734,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -9627,7 +9745,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -9638,7 +9756,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -9649,7 +9767,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -9660,7 +9778,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -9671,7 +9789,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -9682,7 +9800,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -9693,7 +9811,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -9704,7 +9822,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -9715,7 +9833,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -9726,7 +9844,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -9737,7 +9855,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -9748,7 +9866,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -9759,7 +9877,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -9770,7 +9888,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9781,7 +9899,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -9792,7 +9910,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -9803,7 +9921,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -9814,7 +9932,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -9825,7 +9943,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -9836,7 +9954,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -9847,7 +9965,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -9858,7 +9976,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -9869,7 +9987,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -9880,7 +9998,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -9891,7 +10009,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -9902,7 +10020,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -9913,7 +10031,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -9924,7 +10042,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -9935,7 +10053,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -9946,7 +10064,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -9957,7 +10075,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -9968,7 +10086,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -9979,7 +10097,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -9990,7 +10108,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -10001,7 +10119,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -10012,7 +10130,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -10023,7 +10141,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -10034,7 +10152,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -10045,7 +10163,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -10056,7 +10174,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -10067,7 +10185,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -10078,7 +10196,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -10089,7 +10207,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -10100,7 +10218,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -10111,7 +10229,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -10122,7 +10240,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -10133,7 +10251,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -10144,7 +10262,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -10155,7 +10273,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -10166,7 +10284,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -10177,7 +10295,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -10188,7 +10306,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -10199,7 +10317,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -10210,7 +10328,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -10221,7 +10339,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -10232,7 +10350,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -10243,7 +10361,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -10254,7 +10372,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -10265,7 +10383,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -10276,7 +10394,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -10287,7 +10405,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -10298,7 +10416,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -10309,7 +10427,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -10320,7 +10438,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -10331,7 +10449,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -10342,7 +10460,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -10353,7 +10471,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -10364,7 +10482,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -10375,7 +10493,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -10386,7 +10504,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -10397,7 +10515,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -10408,7 +10526,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -10419,7 +10537,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -10430,7 +10548,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -10441,7 +10559,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -10452,7 +10570,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -10463,7 +10581,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -10474,7 +10592,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -10485,7 +10603,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -10496,7 +10614,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -10507,7 +10625,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -10518,7 +10636,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -10529,7 +10647,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -10540,7 +10658,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -10551,7 +10669,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -10562,7 +10680,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -10573,7 +10691,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -10584,7 +10702,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -10595,7 +10713,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -10606,7 +10724,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -10617,7 +10735,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -10628,7 +10746,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -10639,7 +10757,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -10650,7 +10768,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -10661,7 +10779,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -10672,7 +10790,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -10683,7 +10801,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -10694,7 +10812,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -10705,7 +10823,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -10716,7 +10834,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -10727,7 +10845,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -10738,7 +10856,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -10749,7 +10867,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -10760,7 +10878,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -10771,7 +10889,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10782,7 +10900,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10793,7 +10911,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10804,7 +10922,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10815,7 +10933,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10826,7 +10944,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10837,7 +10955,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10848,7 +10966,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10859,7 +10977,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10870,7 +10988,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10881,7 +10999,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10892,7 +11010,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10903,7 +11021,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10914,7 +11032,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10925,7 +11043,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10936,7 +11054,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10947,7 +11065,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10958,7 +11076,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10969,7 +11087,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10980,7 +11098,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10991,7 +11109,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -11002,7 +11120,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -11013,7 +11131,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -11024,7 +11142,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -11035,7 +11153,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -11046,7 +11164,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -11057,7 +11175,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -11068,7 +11186,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -11079,7 +11197,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -11090,7 +11208,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -11101,7 +11219,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -11112,7 +11230,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -11123,7 +11241,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -11134,7 +11252,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -11145,7 +11263,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -11156,7 +11274,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -11167,7 +11285,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -11178,7 +11296,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -11189,7 +11307,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -11200,7 +11318,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -11211,7 +11329,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -11222,7 +11340,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -11233,7 +11351,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -11244,7 +11362,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -11255,7 +11373,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11266,7 +11384,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11277,7 +11395,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11288,7 +11406,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11299,7 +11417,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11310,7 +11428,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11321,7 +11439,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11332,7 +11450,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11343,7 +11461,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11354,7 +11472,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11365,7 +11483,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11376,7 +11494,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11387,7 +11505,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11398,7 +11516,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11409,7 +11527,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11420,7 +11538,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11431,7 +11549,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11442,7 +11560,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11453,7 +11571,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11464,7 +11582,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11475,7 +11593,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11486,7 +11604,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11497,7 +11615,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11508,7 +11626,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11519,7 +11637,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11530,7 +11648,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11541,7 +11659,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11552,7 +11670,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11563,7 +11681,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11574,7 +11692,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11585,7 +11703,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11596,7 +11714,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11607,7 +11725,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11618,7 +11736,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11629,7 +11747,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11640,7 +11758,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11651,7 +11769,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11662,7 +11780,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11673,7 +11791,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11684,7 +11802,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11695,7 +11813,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11706,7 +11824,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11717,7 +11835,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11728,7 +11846,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -11739,7 +11857,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -11750,7 +11868,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -11761,7 +11879,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -11772,7 +11890,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -11783,7 +11901,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -11794,7 +11912,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -11805,7 +11923,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -11816,7 +11934,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -11827,7 +11945,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -11838,7 +11956,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -11849,7 +11967,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -11860,7 +11978,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -11871,7 +11989,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -11882,7 +12000,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -11893,7 +12011,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -11904,7 +12022,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -11915,7 +12033,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -11926,7 +12044,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -11937,7 +12055,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -11948,7 +12066,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -11959,7 +12077,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -11970,7 +12088,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -11981,7 +12099,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -11992,7 +12110,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -12003,7 +12121,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -12014,7 +12132,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -12025,7 +12143,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -12036,7 +12154,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -12047,7 +12165,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -12058,7 +12176,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -12069,7 +12187,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -12080,7 +12198,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -12091,7 +12209,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -12102,7 +12220,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -12113,7 +12231,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -12124,7 +12242,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -12135,7 +12253,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -12146,7 +12264,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -12157,7 +12275,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -12168,7 +12286,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -12179,7 +12297,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -12190,7 +12308,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -12201,7 +12319,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -12212,7 +12330,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -12223,7 +12341,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -12234,7 +12352,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -12245,7 +12363,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -12256,7 +12374,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -12267,7 +12385,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -12278,7 +12396,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -12289,7 +12407,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -12300,7 +12418,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -12311,7 +12429,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -12322,7 +12440,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -12333,7 +12451,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -12344,7 +12462,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -12355,7 +12473,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -12366,7 +12484,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -12377,7 +12495,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -12388,7 +12506,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -12399,7 +12517,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -12410,7 +12528,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -12421,7 +12539,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -12432,7 +12550,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -12443,7 +12561,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -12454,7 +12572,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -12465,7 +12583,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -12476,7 +12594,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -12487,7 +12605,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -12498,7 +12616,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -12509,7 +12627,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -12520,7 +12638,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -12531,7 +12649,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -12542,7 +12660,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -12553,7 +12671,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -12564,7 +12682,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -12575,7 +12693,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -12586,7 +12704,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -12597,7 +12715,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -12608,7 +12726,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -12619,7 +12737,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -12630,7 +12748,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -12641,7 +12759,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -12652,7 +12770,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -12663,7 +12781,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -12674,7 +12792,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -12685,7 +12803,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -12696,7 +12814,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -12707,7 +12825,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -12718,7 +12836,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -12729,7 +12847,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -12740,7 +12858,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -12751,7 +12869,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -12762,7 +12880,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -12773,7 +12891,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -12784,7 +12902,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -12795,7 +12913,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -12806,7 +12924,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -12817,7 +12935,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -12828,7 +12946,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -12839,7 +12957,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -12850,7 +12968,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -12861,7 +12979,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -12872,7 +12990,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -12883,7 +13001,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -12894,7 +13012,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -12905,7 +13023,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -12916,7 +13034,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -12927,7 +13045,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -12938,7 +13056,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -12949,7 +13067,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -12960,7 +13078,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -12971,7 +13089,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -12982,7 +13100,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -12993,7 +13111,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -13004,7 +13122,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -13015,7 +13133,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -13026,7 +13144,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -13037,7 +13155,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -13048,7 +13166,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -13059,7 +13177,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -13070,7 +13188,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -13081,7 +13199,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -13092,7 +13210,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -13103,7 +13221,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -13114,7 +13232,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -13125,7 +13243,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -13136,7 +13254,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -13147,7 +13265,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -13158,7 +13276,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -13169,7 +13287,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -13180,7 +13298,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -13191,7 +13309,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -13202,7 +13320,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -13213,7 +13331,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -13224,7 +13342,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -13235,7 +13353,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -13246,7 +13364,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -13257,7 +13375,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -13268,7 +13386,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -13279,7 +13397,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -13290,7 +13408,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -13301,7 +13419,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -13312,7 +13430,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -13323,7 +13441,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -13334,7 +13452,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -13345,7 +13463,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -13356,7 +13474,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -13367,7 +13485,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -13378,7 +13496,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -13389,7 +13507,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -13400,7 +13518,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -13411,7 +13529,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -13422,7 +13540,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -13433,7 +13551,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -13444,7 +13562,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -13455,7 +13573,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -13466,7 +13584,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -13477,7 +13595,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -13488,7 +13606,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -13499,7 +13617,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -13510,7 +13628,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -13521,7 +13639,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -13532,7 +13650,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -13543,7 +13661,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -13554,7 +13672,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -13565,7 +13683,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -13576,7 +13694,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -13587,7 +13705,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -13598,7 +13716,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -13609,7 +13727,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -13620,7 +13738,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -13631,7 +13749,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -13642,7 +13760,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -13653,7 +13771,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -13664,7 +13782,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -13675,7 +13793,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -13686,7 +13804,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -13697,7 +13815,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -13708,7 +13826,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -13719,7 +13837,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -13730,7 +13848,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -13741,7 +13859,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -13752,7 +13870,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -13763,7 +13881,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -13774,7 +13892,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -13785,7 +13903,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -13796,7 +13914,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -13807,7 +13925,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -13818,7 +13936,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -13829,7 +13947,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -13840,7 +13958,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -13851,7 +13969,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -13862,7 +13980,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -13873,7 +13991,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -13884,7 +14002,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -13895,7 +14013,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -13906,7 +14024,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -13917,7 +14035,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -13928,7 +14046,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -13939,7 +14057,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -13950,7 +14068,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -13961,7 +14079,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -13972,7 +14090,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -13983,7 +14101,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -13994,7 +14112,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -14005,7 +14123,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -14016,7 +14134,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -14027,7 +14145,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -14038,7 +14156,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -14049,7 +14167,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -14060,7 +14178,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -14071,7 +14189,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -14082,7 +14200,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -14093,7 +14211,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -14104,7 +14222,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -14115,7 +14233,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -14126,7 +14244,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -14137,7 +14255,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -14148,7 +14266,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -14159,7 +14277,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -14170,7 +14288,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -14181,7 +14299,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -14192,7 +14310,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -14203,7 +14321,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -14214,7 +14332,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -14225,7 +14343,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -14236,7 +14354,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -14247,7 +14365,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -14258,7 +14376,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -14269,7 +14387,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -14280,7 +14398,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -14291,7 +14409,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -14302,7 +14420,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -14313,7 +14431,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -14324,7 +14442,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -14335,7 +14453,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -14346,7 +14464,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -14357,7 +14475,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -14368,7 +14486,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -14379,7 +14497,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -14390,7 +14508,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -14401,7 +14519,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -14412,7 +14530,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -14423,7 +14541,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -14434,7 +14552,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -14445,7 +14563,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -14456,7 +14574,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -14467,7 +14585,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -14478,7 +14596,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -14489,7 +14607,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -14500,7 +14618,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -14511,7 +14629,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -14522,7 +14640,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -14533,7 +14651,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -14544,7 +14662,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -14555,7 +14673,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -14566,7 +14684,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -14577,7 +14695,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -14588,7 +14706,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -14599,7 +14717,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -14610,7 +14728,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -14621,7 +14739,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -14632,7 +14750,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -14643,7 +14761,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -14654,7 +14772,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -14665,7 +14783,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -14676,7 +14794,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -14687,7 +14805,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -14698,7 +14816,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -14709,7 +14827,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -14720,7 +14838,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -14731,7 +14849,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -14742,7 +14860,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -14753,7 +14871,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -14764,7 +14882,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -14775,7 +14893,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -14786,7 +14904,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -14797,7 +14915,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -14808,7 +14926,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -14819,7 +14937,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -14830,7 +14948,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -14841,7 +14959,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -14852,7 +14970,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -14863,7 +14981,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -14874,7 +14992,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -14885,7 +15003,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -14896,7 +15014,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -14907,7 +15025,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -14918,7 +15036,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -14929,7 +15047,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -14940,7 +15058,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -14951,7 +15069,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -14962,7 +15080,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -14973,7 +15091,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -15005,12 +15123,12 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1639</v>
       </c>
@@ -15018,7 +15136,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>392</v>
       </c>
@@ -15026,7 +15144,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>394</v>
       </c>
@@ -15034,7 +15152,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>396</v>
       </c>
@@ -15042,7 +15160,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>398</v>
       </c>
@@ -15050,7 +15168,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>400</v>
       </c>
@@ -15058,7 +15176,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>402</v>
       </c>
@@ -15066,7 +15184,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>404</v>
       </c>
@@ -15074,7 +15192,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>406</v>
       </c>
@@ -15082,7 +15200,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>408</v>
       </c>
@@ -15090,7 +15208,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>410</v>
       </c>
@@ -15098,7 +15216,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>412</v>
       </c>
@@ -15106,7 +15224,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>414</v>
       </c>
@@ -15114,7 +15232,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>416</v>
       </c>
@@ -15122,7 +15240,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>432</v>
       </c>
@@ -15130,7 +15248,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>434</v>
       </c>
@@ -15138,7 +15256,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>438</v>
       </c>
@@ -15146,7 +15264,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>440</v>
       </c>
@@ -15154,7 +15272,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>442</v>
       </c>
@@ -15162,7 +15280,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>444</v>
       </c>
@@ -15170,7 +15288,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>446</v>
       </c>
@@ -15178,7 +15296,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>448</v>
       </c>
@@ -15186,7 +15304,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>450</v>
       </c>
@@ -15194,7 +15312,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>452</v>
       </c>
@@ -15202,7 +15320,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>872</v>
       </c>
@@ -15210,7 +15328,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>874</v>
       </c>
@@ -15218,7 +15336,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>890</v>
       </c>
@@ -15226,7 +15344,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>894</v>
       </c>
@@ -15234,7 +15352,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>896</v>
       </c>
@@ -15242,7 +15360,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>898</v>
       </c>
@@ -15250,7 +15368,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>900</v>
       </c>
@@ -15258,7 +15376,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>902</v>
       </c>
@@ -15266,7 +15384,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>904</v>
       </c>
@@ -15274,7 +15392,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>908</v>
       </c>
@@ -15282,7 +15400,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>912</v>
       </c>
@@ -15290,7 +15408,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>916</v>
       </c>
@@ -15298,7 +15416,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>918</v>
       </c>
@@ -15306,7 +15424,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>920</v>
       </c>
@@ -15314,7 +15432,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>926</v>
       </c>
@@ -15322,7 +15440,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>930</v>
       </c>
@@ -15330,7 +15448,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>934</v>
       </c>
@@ -15338,7 +15456,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>938</v>
       </c>
@@ -15346,7 +15464,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>940</v>
       </c>
@@ -15354,7 +15472,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>942</v>
       </c>
@@ -15362,7 +15480,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>944</v>
       </c>
@@ -15370,7 +15488,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>946</v>
       </c>
@@ -15378,7 +15496,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>950</v>
       </c>
@@ -15386,7 +15504,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>1306</v>
       </c>
@@ -15394,7 +15512,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>1310</v>
       </c>
@@ -15402,7 +15520,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>1312</v>
       </c>
@@ -15410,7 +15528,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>1316</v>
       </c>
@@ -15418,7 +15536,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>1318</v>
       </c>
@@ -15426,7 +15544,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>1320</v>
       </c>
@@ -15434,7 +15552,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>1322</v>
       </c>
@@ -15442,7 +15560,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>1326</v>
       </c>
@@ -15450,7 +15568,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>1328</v>
       </c>
@@ -15458,7 +15576,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>1330</v>
       </c>
@@ -15466,7 +15584,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>1332</v>
       </c>
@@ -15474,7 +15592,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>1334</v>
       </c>
@@ -15482,7 +15600,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>1336</v>
       </c>
@@ -15490,7 +15608,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>1338</v>
       </c>
@@ -15498,7 +15616,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>1340</v>
       </c>
@@ -15506,7 +15624,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>1342</v>
       </c>
@@ -15514,7 +15632,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>1344</v>
       </c>
@@ -15522,7 +15640,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>1346</v>
       </c>
@@ -15530,7 +15648,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>1350</v>
       </c>
@@ -15538,7 +15656,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>1356</v>
       </c>
@@ -15546,7 +15664,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>1358</v>
       </c>
@@ -15554,7 +15672,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>1360</v>
       </c>
@@ -15562,7 +15680,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>1366</v>
       </c>
@@ -15570,7 +15688,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>1368</v>
       </c>
@@ -15578,7 +15696,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>1370</v>
       </c>
@@ -15586,7 +15704,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>1372</v>
       </c>
@@ -15594,7 +15712,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>1376</v>
       </c>
@@ -15602,7 +15720,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>1378</v>
       </c>
@@ -15610,7 +15728,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>1380</v>
       </c>
@@ -15618,7 +15736,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>1382</v>
       </c>
@@ -15642,15 +15760,15 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1600</v>
       </c>
@@ -15658,7 +15776,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1601</v>
       </c>
@@ -15666,7 +15784,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1604</v>
       </c>
@@ -15674,7 +15792,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1074</v>
       </c>
@@ -15682,7 +15800,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>622</v>
       </c>
@@ -15690,7 +15808,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>618</v>
       </c>
@@ -15698,17 +15816,17 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>1611</v>
       </c>
@@ -15716,7 +15834,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -15724,7 +15842,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>660</v>
       </c>
@@ -15732,7 +15850,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>1615</v>
       </c>
@@ -15740,17 +15858,17 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>600</v>
       </c>
@@ -15758,7 +15876,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>1619</v>
       </c>
@@ -15766,7 +15884,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>1621</v>
       </c>
@@ -15774,7 +15892,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>1623</v>
       </c>
@@ -15782,7 +15900,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>606</v>
       </c>
@@ -15790,7 +15908,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>1626</v>
       </c>
@@ -15798,22 +15916,22 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>1631</v>
       </c>
@@ -15821,7 +15939,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>1634</v>
       </c>
@@ -15829,12 +15947,12 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>1636</v>
       </c>
@@ -15842,7 +15960,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>1638</v>
       </c>
@@ -15862,24 +15980,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="2" customWidth="1"/>
-    <col min="4" max="4" width="80.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="80.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1659</v>
       </c>
@@ -15901,8 +16019,11 @@
       <c r="G1" s="2" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1707</v>
       </c>
@@ -15921,8 +16042,11 @@
       <c r="G2" s="7" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1707</v>
       </c>
@@ -15937,7 +16061,7 @@
       <c r="G3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1726</v>
       </c>
@@ -15956,9 +16080,12 @@
       <c r="G4" s="7" t="s">
         <v>1789</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>1874</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1683</v>
       </c>
@@ -15977,9 +16104,12 @@
       <c r="G5" s="7" t="s">
         <v>1790</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>1875</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1761</v>
       </c>
@@ -16001,7 +16131,7 @@
       <c r="G6" s="8"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1651</v>
       </c>
@@ -16018,9 +16148,12 @@
       <c r="G7" s="8" t="s">
         <v>1794</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>1876</v>
+      </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16033,7 +16166,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16050,9 +16183,12 @@
       <c r="G9" s="7" t="s">
         <v>1798</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>1877</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1669</v>
       </c>
@@ -16069,8 +16205,11 @@
       <c r="G10" s="7" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16079,7 +16218,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16096,8 +16235,11 @@
       <c r="G12" s="2" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16106,7 +16248,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1609</v>
       </c>
@@ -16125,8 +16267,11 @@
       <c r="G14" s="7" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16143,8 +16288,11 @@
       <c r="G15" s="7" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16158,7 +16306,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16170,7 +16318,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>1732</v>
       </c>
@@ -16189,8 +16337,11 @@
       <c r="G18" s="7" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16209,8 +16360,11 @@
       <c r="G19" s="7" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16224,7 +16378,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16236,7 +16390,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>1749</v>
       </c>
@@ -16256,7 +16410,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16276,7 +16430,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16296,7 +16450,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1652</v>
       </c>
@@ -16316,7 +16470,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>1741</v>
       </c>
@@ -16335,8 +16489,11 @@
       <c r="G26" s="7" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>1685</v>
       </c>
@@ -16355,8 +16512,11 @@
       <c r="G27" s="7" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>1751</v>
       </c>
@@ -16375,8 +16535,11 @@
       <c r="G28" s="7" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1661</v>
       </c>
@@ -16393,8 +16556,11 @@
       <c r="G29" s="7" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16411,8 +16577,11 @@
       <c r="G30" s="7" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16424,7 +16593,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16441,8 +16610,11 @@
       <c r="G32" s="7" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16454,7 +16626,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16471,8 +16643,11 @@
       <c r="G34" s="7" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16481,7 +16656,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16490,7 +16665,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>1753</v>
       </c>
@@ -16507,8 +16682,11 @@
       <c r="G37" s="7" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>1667</v>
       </c>
@@ -16527,8 +16705,11 @@
       <c r="G38" s="7" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>1696</v>
       </c>
@@ -16545,8 +16726,11 @@
       <c r="G39" s="7" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16563,8 +16747,11 @@
       <c r="G40" s="7" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16576,7 +16763,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>1665</v>
       </c>
@@ -16595,8 +16782,11 @@
       <c r="G42" s="7" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>1726</v>
       </c>
@@ -16615,8 +16805,11 @@
       <c r="G43" s="7" t="s">
         <v>1834</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16635,7 +16828,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16644,7 +16837,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>1680</v>
       </c>
@@ -16661,8 +16854,11 @@
       <c r="G46" s="7" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>1712</v>
       </c>
@@ -16679,8 +16875,11 @@
       <c r="G47" s="7" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1663</v>
       </c>
@@ -16697,8 +16896,11 @@
       <c r="G48" s="7" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>1701</v>
       </c>
@@ -16715,8 +16917,11 @@
       <c r="G49" s="2" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="7" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16733,8 +16938,11 @@
       <c r="G50" s="7" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="7" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16746,7 +16954,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>1703</v>
       </c>
@@ -16763,8 +16971,11 @@
       <c r="G52" s="7" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16782,7 +16993,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16794,7 +17005,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16806,7 +17017,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>1747</v>
       </c>
@@ -16824,7 +17035,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16836,7 +17047,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16848,7 +17059,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16860,7 +17071,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>1739</v>
       </c>
@@ -16872,7 +17083,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>452</v>
       </c>
@@ -16890,7 +17101,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>452</v>
       </c>
@@ -16908,7 +17119,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>452</v>
       </c>
@@ -16920,7 +17131,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>452</v>
       </c>
@@ -16932,7 +17143,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>1705</v>
       </c>
@@ -16950,7 +17161,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16969,8 +17180,11 @@
       <c r="G66" s="7" t="s">
         <v>1846</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H66" s="7" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16984,7 +17198,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>1714</v>
       </c>
@@ -16998,7 +17212,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>1714</v>
       </c>
@@ -17012,7 +17226,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>1724</v>
       </c>
@@ -17031,8 +17245,11 @@
       <c r="G70" s="7" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="2" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17049,8 +17266,11 @@
       <c r="G71" s="7" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="2" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17062,7 +17282,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17076,7 +17296,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17093,8 +17313,11 @@
       <c r="G74" s="7" t="s">
         <v>1849</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H74" s="2" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17108,7 +17331,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>448</v>
       </c>
@@ -17125,8 +17348,11 @@
       <c r="G76" s="7" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="2" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>1858</v>
       </c>
@@ -17135,7 +17361,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>1860</v>
       </c>
@@ -17154,8 +17380,11 @@
       <c r="G78" s="7" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="2" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>1864</v>
       </c>
@@ -17172,7 +17401,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>1868</v>
       </c>
@@ -17185,6 +17414,9 @@
       </c>
       <c r="G80" s="7" t="s">
         <v>1869</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>1909</v>
       </c>
     </row>
   </sheetData>
@@ -17226,11 +17458,15 @@
     <hyperlink ref="G78" r:id="rId34" xr:uid="{D049DB7A-F7EF-462E-BC8F-783F813A2489}"/>
     <hyperlink ref="G79" r:id="rId35" xr:uid="{14AEC803-0DCA-4AF9-B580-36C74BB588A1}"/>
     <hyperlink ref="G80" r:id="rId36" xr:uid="{E13FE73D-133B-42C8-89EF-15EE75971845}"/>
+    <hyperlink ref="H2" r:id="rId37" xr:uid="{F481C379-922B-4BDB-9921-EEE7A6832199}"/>
+    <hyperlink ref="H49" r:id="rId38" xr:uid="{57032A4F-4ED1-4532-8C26-3B565ED54062}"/>
+    <hyperlink ref="H50" r:id="rId39" xr:uid="{4CC96FEA-D56C-40D6-BDE8-EC46983934E0}"/>
+    <hyperlink ref="H66" r:id="rId40" xr:uid="{55A96873-51BA-44CD-A9EF-BBE68DE0B5C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE9002-C06A-4E99-A8B4-04905916DAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE725F87-876F-4A2A-9A23-5819B497E71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="1910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1913">
   <si>
     <t>name</t>
   </si>
@@ -5756,6 +5756,15 @@
   </si>
   <si>
     <t>https://www.msci.com/indexes/index/934400</t>
+  </si>
+  <si>
+    <t>Prezzi oro da LBMA</t>
+  </si>
+  <si>
+    <t>LBMA</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/gold/LBMA-gold_M-gold_M_EUR_AM_AVG.csv</t>
   </si>
 </sst>
 </file>
@@ -5985,8 +5994,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:H80" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H80" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:H81" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H81" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
     <sortCondition ref="A1:A75"/>
   </sortState>
@@ -15978,10 +15987,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17388,6 +17397,9 @@
       <c r="A79" s="2" t="s">
         <v>1864</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>1864</v>
+      </c>
       <c r="C79" s="3" t="s">
         <v>1866</v>
       </c>
@@ -17403,19 +17415,39 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="2" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>1851</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>1869</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>1909</v>
       </c>
     </row>
@@ -17457,7 +17489,7 @@
     <hyperlink ref="G76" r:id="rId33" xr:uid="{19BA0435-91D0-49BC-9656-FB7EC98EE0E6}"/>
     <hyperlink ref="G78" r:id="rId34" xr:uid="{D049DB7A-F7EF-462E-BC8F-783F813A2489}"/>
     <hyperlink ref="G79" r:id="rId35" xr:uid="{14AEC803-0DCA-4AF9-B580-36C74BB588A1}"/>
-    <hyperlink ref="G80" r:id="rId36" xr:uid="{E13FE73D-133B-42C8-89EF-15EE75971845}"/>
+    <hyperlink ref="G81" r:id="rId36" xr:uid="{E13FE73D-133B-42C8-89EF-15EE75971845}"/>
     <hyperlink ref="H2" r:id="rId37" xr:uid="{F481C379-922B-4BDB-9921-EEE7A6832199}"/>
     <hyperlink ref="H49" r:id="rId38" xr:uid="{57032A4F-4ED1-4532-8C26-3B565ED54062}"/>
     <hyperlink ref="H50" r:id="rId39" xr:uid="{4CC96FEA-D56C-40D6-BDE8-EC46983934E0}"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE725F87-876F-4A2A-9A23-5819B497E71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3CF505-B293-4FF1-AAB3-D4AA176BF5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5392,15 +5392,6 @@
     <t>AC-AP-EX-JAPAN</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/700211%20-%20MSCI%20EFM%20Africa%20Top%2050%20Capped%20Index%20%20-%20FULL%20-%202008-05-30%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/899903%20-%20MSCI%20AC%20Asia%20Pacific%20ex%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/899800%20-%20MSCI%20AC%20Asia%20ex%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>ASIA-EX-CHINA-EX-JAPAN</t>
   </si>
   <si>
@@ -5410,36 +5401,15 @@
     <t>EU-MID-CAP</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/912400%20-%20MSCI%20Canada%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>Yahoo</t>
   </si>
   <si>
     <t>FVSJ.F</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/718708%20-%20MSCI%20China%20A%20Index%20%20-%20FULL%20-%202008-11-28%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/302400%20-%20MSCI%20China%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/700098%20-%20MSCI%20EM%20Eastern%20Europe%20ex%20Russia%20Index%20%20-%20FULL%20-%202000-12-29%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/713021%20-%20MSCI%20EM%20(Emerging%20Markets)%20ex%20China%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-09%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>EM EX-CHINA</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/664220%20-%20MSCI%20EM%20(Emerging%20Markets)%20IMI%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/891800%20-%20MSCI%20EM%20(Emerging%20Markets)%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/STOXX%20Europe%20Mid%20200%20EUR%20P%20Historical%20Data.csv</t>
   </si>
   <si>
@@ -5458,15 +5428,6 @@
     <t>^FTSE</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106233%20-%20MSCI%20Europe%20Small%20Cap%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/892200%20-%20MSCI%20AC%20Far%20East%20ex%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655042%20-%20MSCI%20AC%20Far%20East%20ex%20Japan%20Small%20Cap%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>EU SMALL CAP</t>
   </si>
   <si>
@@ -5485,9 +5446,6 @@
     <t>FAR EAST EX JAPAN MID CAP</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/930000%20-%20MSCI%20Greece%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>NORDICS</t>
   </si>
   <si>
@@ -5500,63 +5458,18 @@
     <t>SOUTH AFRICA</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/935600%20-%20MSCI%20India%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105767%20-%20MSCI%20Indonesia%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/939200%20-%20MSCI%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106218%20-%20MSCI%20Japan%20Small%20Cap%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/127273%20-%20MSCI%20EM%20Latin%20America%2010_40%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105768%20-%20MSCI%20Malaysia%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/848400%20-%20MSCI%20Mexico%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>US MID CAP</t>
   </si>
   <si>
     <t>US SMALL CAP</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/990700%20-%20MSCI%20Nordic%20Countries%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-09%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/991400%20-%20MSCI%20Pacific%20ex%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/998100%20-%20MSCI%20Singapore%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/971000%20-%20MSCI%20South%20Africa%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/972400%20-%20MSCI%20Spain%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>China 32.4%, India 21.8, Taiwan 19.2, Brazil 4.5, Saudi Arabia 4.0, South Africa 3.6%, Mexico 2.4, United Arab Emirates 1.9, Malaysia 1.7</t>
   </si>
   <si>
     <t>THAI</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105769%20-%20MSCI%20Thailand%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/915800%20-%20MSCI%20Taiwan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/979200%20-%20MSCI%20Turkey%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>^MID</t>
   </si>
   <si>
@@ -5566,18 +5479,6 @@
     <t>^GSPC</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/990100%20-%20MSCI%20World%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-10%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106332%20-%20MSCI%20World%20ex%20Europe%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/991000%20-%20MSCI%20World%20ex%20USA%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106230%20-%20MSCI%20World%20Small%20Cap%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-08-11%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>Data source</t>
   </si>
   <si>
@@ -5605,18 +5506,12 @@
     <t>Amundi MSCI Switzerland UCITS ETF EUR ©</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/703634%20-%20MSCI%20Switzerland%2020_35%20Index%20%20-%20FULL%20-%202008-05-30%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>EM SMALL CAP</t>
   </si>
   <si>
     <t>SPDR MSCI Emerging Markets Small Cap UCITS ETF</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655061%20-%20MSCI%20EM%20(Emerging%20Markets)%20Small%20Cap%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>India 25,83 , Taiwan 18,87 , Corea 13,41 , Cina 12,28 , Sudafrica 4,03 , Brasile 3,68 , Arabia Saudita 3,40 , Malesia 2,47 , Tailandia 2,37 , Turchia 1,93 , Indonesia 1,73 , Polonia 1,62 , Messico 1,43 , Kuwait 1,28 , UAE 1,25 , Filippine 0,79 , Grecia 0,79 , Cile 0,76 , Germania 0,69 , Qatar 0,69 , Colombia 0,26 , Ungheria 0,14 , Egitto 0,13 , Altri 0,19</t>
   </si>
   <si>
@@ -5635,12 +5530,6 @@
     <t>HONG KONG</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/934400%20-%20MSCI%20Hong%20Kong%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-11-03%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/941000%20-%20MSCI%20Korea%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-11-03%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
     <t>^TASI.SR</t>
   </si>
   <si>
@@ -5765,6 +5654,117 @@
   </si>
   <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/gold/LBMA-gold_M-gold_M_EUR_AM_AVG.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/700211%20-%20MSCI%20EFM%20Africa%20Top%2050%20Capped%20Index%20.xlsx.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/899903%20-%20MSCI%20AC%20Asia%20Pacific%20ex%20Japan%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/899800%20-%20MSCI%20AC%20Asia%20ex%20Japan%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/912400%20-%20MSCI%20Canada%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/302400%20-%20MSCI%20China%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/718708%20-%20MSCI%20China%20A%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/941000%20-%20MSCI%20Korea%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/700098%20-%20MSCI%20EM%20Eastern%20Europe%20ex%20Russia%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/713021%20-%20MSCI%20EM%20(Emerging%20Markets)%20ex%20China%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/891800%20-%20MSCI%20EM%20(Emerging%20Markets)%20Index%20.xlsx.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106233%20-%20MSCI%20Europe%20Small%20Cap%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/892200%20-%20MSCI%20AC%20Far%20East%20ex%20Japan%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655042%20-%20MSCI%20AC%20Far%20East%20ex%20Japan%20Small%20Cap%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/935600%20-%20MSCI%20India%20Index%20.xlsx.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105767%20-%20MSCI%20Indonesia%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/939200%20-%20MSCI%20Japan%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106218%20-%20MSCI%20Japan%20Small%20Cap%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/127273%20-%20MSCI%20EM%20Latin%20America%2010_40%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105768%20-%20MSCI%20Malaysia%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/848400%20-%20MSCI%20Mexico%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/990700%20-%20MSCI%20Nordic%20Countries%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/991400%20-%20MSCI%20Pacific%20ex%20Japan%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/971000%20-%20MSCI%20South%20Africa%20Index%20.xlsx.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/972400%20-%20MSCI%20Spain%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105769%20-%20MSCI%20Thailand%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/915800%20-%20MSCI%20Taiwan%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/979200%20-%20MSCI%20Turkey%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/990100%20-%20MSCI%20World%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106332%20-%20MSCI%20World%20ex%20Europe%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/991000%20-%20MSCI%20World%20ex%20USA%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106230%20-%20MSCI%20World%20Small%20Cap%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/703634%20-%20MSCI%20Switzerland%2020_35%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655061%20-%20MSCI%20EM%20(Emerging%20Markets)%20Small%20Cap%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/930000%20-%20MSCI%20Greece%20Index%20.xlsx.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/998100%20-%20MSCI%20Singapore%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/934400%20-%20MSCI%20Hong%20Kong%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/664220%20-%20MSCI%20EM%20(Emerging%20Markets)%20IMI%20Index%20.xlsx</t>
   </si>
 </sst>
 </file>
@@ -5868,7 +5868,71 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5963,7 +6027,7 @@
     <sortCondition ref="A1:A800"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{5A90A855-91ED-41CE-B4B6-41473BC05892}" name="name"/>
     <tableColumn id="3" xr3:uid="{A6DB99C2-C65F-4DE9-8199-32DE52DA7D1D}" name="url"/>
   </tableColumns>
@@ -5983,31 +6047,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}" name="Table1" displayName="Table1" ref="B2:C30" totalsRowShown="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}" name="Table1" displayName="Table1" ref="B2:C30" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="B2:C30" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2DEF44DB-B91A-4361-87EC-E5D8D821409D}" name="Aree" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8FBA11E1-52C6-43A5-A4B9-0B712AC388F0}" name="Note" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{2DEF44DB-B91A-4361-87EC-E5D8D821409D}" name="Aree" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{8FBA11E1-52C6-43A5-A4B9-0B712AC388F0}" name="Note" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:H81" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:H81" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:H81" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
-    <sortCondition ref="A1:A75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H81">
+    <sortCondition sortBy="cellColor" ref="G1:G81" dxfId="1"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{89FD6C47-21B3-47AF-97FD-B2BF9E03DF02}" name="Original source" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{89FD6C47-21B3-47AF-97FD-B2BF9E03DF02}" name="Original source" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15989,8 +16053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16020,935 +16084,932 @@
         <v>1784</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1850</v>
+        <v>1817</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1785</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>1707</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1754</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="E6" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>1836</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1874</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1875</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1796</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>1794</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>1877</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2" t="s">
-        <v>890</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1878</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>1691</v>
+        <v>1651</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1688</v>
+        <v>1646</v>
       </c>
       <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>1879</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1839</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1689</v>
+        <v>1671</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1879</v>
+        <v>894</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1690</v>
+        <v>1672</v>
       </c>
       <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1840</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>1609</v>
+        <v>1669</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1763</v>
-      </c>
+        <v>1668</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>1792</v>
+        <v>890</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1851</v>
+        <v>1818</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1799</v>
+        <v>1881</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1880</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>1731</v>
+        <v>1691</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1730</v>
+        <v>1688</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="2" t="s">
-        <v>1801</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>1800</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>1731</v>
+        <v>1691</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1764</v>
-      </c>
+        <v>1689</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="2" t="s">
-        <v>1801</v>
+        <v>912</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>1802</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>1622</v>
-      </c>
       <c r="B19" s="2" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1765</v>
-      </c>
+        <v>1730</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>1621</v>
+        <v>1793</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1851</v>
+        <v>1818</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1803</v>
+        <v>1884</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>1622</v>
+        <v>1731</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1733</v>
+        <v>1682</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1838</v>
+        <v>1764</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1621</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>1622</v>
+        <v>1731</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1793</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>1853</v>
+        <v>1818</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>1804</v>
+        <v>1885</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>1687</v>
+        <v>1622</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1686</v>
+        <v>1733</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1768</v>
+        <v>1812</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1805</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>1687</v>
+        <v>1622</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1769</v>
-      </c>
+        <v>1734</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>1806</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>1808</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>1652</v>
+        <v>1749</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1649</v>
+        <v>1748</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1658</v>
+        <v>1767</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1856</v>
+        <v>1790</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>1855</v>
+        <v>1820</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>1741</v>
+        <v>1687</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1740</v>
+        <v>1686</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1813</v>
+        <v>1795</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>1810</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>1884</v>
+        <v>1819</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1684</v>
+        <v>1727</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1814</v>
+        <v>1796</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>1811</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>1885</v>
+        <v>1819</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>1772</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>1812</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>1824</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G31" s="7" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2" t="s">
-        <v>908</v>
+      <c r="H31" s="2" t="s">
+        <v>1849</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>1825</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>1679</v>
+        <v>1694</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1676</v>
+        <v>1692</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2" t="s">
-        <v>416</v>
+        <v>910</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1851</v>
+        <v>1818</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1826</v>
+        <v>1890</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1890</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>1679</v>
+        <v>1694</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1677</v>
+        <v>1693</v>
       </c>
       <c r="C35" s="3"/>
+      <c r="D35" s="2" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1679</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C36" s="3"/>
+      <c r="D36" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>1853</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>1753</v>
+        <v>1679</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1752</v>
+        <v>1677</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="2" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>1827</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>1667</v>
+        <v>1679</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>1816</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>1828</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>1892</v>
-      </c>
+        <v>1678</v>
+      </c>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>1696</v>
+        <v>1753</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1695</v>
+        <v>1752</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2" t="s">
-        <v>1817</v>
+        <v>1802</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1851</v>
+        <v>1818</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1829</v>
+        <v>1892</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>1830</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>1894</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>1650</v>
+        <v>1696</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1648</v>
+        <v>1695</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>1774</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>1833</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>1775</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>1834</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C45" s="3"/>
+      <c r="D45" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>1680</v>
+        <v>1709</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1681</v>
+        <v>1710</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="2" t="s">
-        <v>442</v>
+        <v>1808</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>1835</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>1897</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="2" t="s">
-        <v>1823</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>1836</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>1898</v>
-      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>1663</v>
+        <v>1712</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1662</v>
+        <v>1713</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="2" t="s">
-        <v>444</v>
+        <v>1809</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1851</v>
+        <v>1818</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1837</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>1861</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>1701</v>
+        <v>1663</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1700</v>
+        <v>1662</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
-        <v>1839</v>
+        <v>444</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>1900</v>
+        <v>1818</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>1675</v>
+        <v>1701</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1673</v>
+        <v>1700</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
-        <v>942</v>
+        <v>1813</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>1841</v>
+        <v>1818</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>1900</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>1901</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -16956,50 +17017,53 @@
         <v>1675</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="2" t="s">
         <v>942</v>
       </c>
+      <c r="E51" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>1864</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>1703</v>
+        <v>1675</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1702</v>
+        <v>1674</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>1842</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>1902</v>
+        <v>942</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>1654</v>
+        <v>1703</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1653</v>
+        <v>1702</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="2" t="s">
-        <v>1654</v>
+        <v>946</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>1809</v>
+        <v>1818</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>1865</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -17007,19 +17071,25 @@
         <v>1654</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="2" t="s">
         <v>1654</v>
       </c>
+      <c r="E54" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>1799</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>1654</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="2" t="s">
@@ -17028,32 +17098,32 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>1747</v>
+        <v>1654</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1746</v>
+        <v>1656</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="2" t="s">
-        <v>1831</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>1843</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="2" t="s">
-        <v>1832</v>
+        <v>1810</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -17061,11 +17131,11 @@
         <v>1739</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="2" t="s">
-        <v>1832</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -17073,11 +17143,11 @@
         <v>1739</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>1832</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -17085,29 +17155,23 @@
         <v>1739</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="2" t="s">
-        <v>1832</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>452</v>
+        <v>1739</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1643</v>
+        <v>1745</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>1844</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -17115,17 +17179,17 @@
         <v>452</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="2" t="s">
-        <v>452</v>
+        <v>1811</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1852</v>
+        <v>1819</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1845</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -17133,19 +17197,25 @@
         <v>452</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
         <v>452</v>
       </c>
+      <c r="E63" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>1816</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="2" t="s">
@@ -17154,43 +17224,32 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>1705</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1704</v>
+        <v>1646</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>1705</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>1714</v>
-      </c>
       <c r="B66" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>1777</v>
-      </c>
+        <v>1704</v>
+      </c>
+      <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1851</v>
+        <v>1820</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>1846</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>1903</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -17198,85 +17257,87 @@
         <v>1714</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="E67" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>1714</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>1714</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>1724</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>1780</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>1724</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>1847</v>
-      </c>
-      <c r="H70" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>1848</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>1905</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -17284,221 +17345,194 @@
         <v>1722</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="2" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E72" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>1722</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>1781</v>
-      </c>
+        <v>1720</v>
+      </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="2" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>1737</v>
+        <v>1722</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>1721</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1781</v>
+      </c>
       <c r="D74" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>1849</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>1737</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>1782</v>
-      </c>
+        <v>1736</v>
+      </c>
+      <c r="C75" s="3"/>
       <c r="D75" s="2" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E75" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>1859</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
-        <v>1858</v>
+        <v>1824</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>1860</v>
-      </c>
+      <c r="E77" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>1863</v>
-      </c>
+        <v>1825</v>
+      </c>
+      <c r="C78" s="3"/>
       <c r="D78" s="2" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>1862</v>
-      </c>
-      <c r="H78" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>1867</v>
+      <c r="H79" s="2" t="s">
+        <v>1871</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>1864</v>
+        <v>1829</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1864</v>
+        <v>1829</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1910</v>
+        <v>1831</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1864</v>
+        <v>1829</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1911</v>
+        <v>1830</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C81" s="3"/>
+        <v>1829</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1873</v>
+      </c>
       <c r="D81" s="2" t="s">
-        <v>1868</v>
+        <v>1829</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1851</v>
+        <v>1874</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>1869</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>1909</v>
+        <v>1875</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{C722861A-D6BF-4893-904C-B556340630D1}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{A5BE3912-3EE5-4E07-A81D-16DC8440690E}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{D88E19A2-F2C5-4D39-8DC8-95CE96121C5F}"/>
-    <hyperlink ref="G10" r:id="rId4" xr:uid="{F27C4498-A571-4DC3-ACA7-49B7CFE9EF5E}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{05FDA187-45DF-44F1-BC85-4D9B944E6E29}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{1F1CE052-CF38-425C-AB47-203668515EFB}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{1B908796-8802-41F8-B16C-ECF22B71C05E}"/>
-    <hyperlink ref="G18" r:id="rId8" xr:uid="{CF823E6A-A828-44AF-9DFE-EDEAB8BA00C4}"/>
-    <hyperlink ref="G19" r:id="rId9" xr:uid="{1CF01752-0DBE-4DCC-BACA-838790FD96C7}"/>
-    <hyperlink ref="G22" r:id="rId10" xr:uid="{0D3D4A6D-9999-4B5D-A86B-07DC2ABFD9CE}"/>
-    <hyperlink ref="G26" r:id="rId11" xr:uid="{14EA5D06-9DFD-4C39-9B37-89323E9DA61B}"/>
-    <hyperlink ref="G27" r:id="rId12" xr:uid="{D97EA7E7-21D9-4DE8-9ED9-EF5F29F28935}"/>
-    <hyperlink ref="G28" r:id="rId13" xr:uid="{57AFDC35-7229-4D00-8DE2-A88659DAB003}"/>
-    <hyperlink ref="G29" r:id="rId14" xr:uid="{0404BD88-D58D-485A-9A9B-A180FA0B04AE}"/>
-    <hyperlink ref="G30" r:id="rId15" xr:uid="{1F8332A0-2C05-4784-A3C9-BD08152A70A2}"/>
-    <hyperlink ref="G32" r:id="rId16" xr:uid="{7ECEDC97-9BB7-46DB-BE8E-CFA77F46C785}"/>
-    <hyperlink ref="G34" r:id="rId17" xr:uid="{F58FBB36-FE9A-4641-A756-1434C414D163}"/>
-    <hyperlink ref="G37" r:id="rId18" xr:uid="{6F170A47-01E7-458E-979F-FA4A3DF35115}"/>
-    <hyperlink ref="G38" r:id="rId19" xr:uid="{E6D56F5B-AAD4-4429-B597-22E2BF909C3C}"/>
-    <hyperlink ref="G39" r:id="rId20" xr:uid="{68F50D44-26C3-4C97-B605-3852AB7AFC6D}"/>
-    <hyperlink ref="G40" r:id="rId21" xr:uid="{11A57259-221F-4B44-9DFE-B8BDCD19AC52}"/>
-    <hyperlink ref="G42" r:id="rId22" xr:uid="{AAA38C3D-55FC-4BFD-B94D-5093E5F71C9A}"/>
-    <hyperlink ref="G43" r:id="rId23" xr:uid="{30612F49-EB60-4CFE-BDE1-8539D2C7C873}"/>
-    <hyperlink ref="G46" r:id="rId24" xr:uid="{5EF9DE92-77BC-4144-BBE0-F41B0113DDEA}"/>
-    <hyperlink ref="G47" r:id="rId25" xr:uid="{24F25F9D-B8F1-425B-A4DA-D0DBED539190}"/>
-    <hyperlink ref="G48" r:id="rId26" xr:uid="{3AD9C00E-5019-4891-9F7D-168FCC917103}"/>
-    <hyperlink ref="G50" r:id="rId27" xr:uid="{E8B66385-2326-4192-9943-A396ED69E8EA}"/>
-    <hyperlink ref="G52" r:id="rId28" xr:uid="{98F41FAA-7CB6-4891-9510-7710EAB468F1}"/>
-    <hyperlink ref="G66" r:id="rId29" xr:uid="{E0B66F0B-D5B3-4DD1-B040-A87A65F9299E}"/>
-    <hyperlink ref="G70" r:id="rId30" xr:uid="{967024C2-3FE6-49B6-8CED-8A6472E0293B}"/>
-    <hyperlink ref="G71" r:id="rId31" xr:uid="{9B335A01-CEB6-4AC0-BC3F-D4994D2BBCF2}"/>
-    <hyperlink ref="G74" r:id="rId32" xr:uid="{853E0A3D-83F6-4892-96B8-EEDBABB09668}"/>
-    <hyperlink ref="G76" r:id="rId33" xr:uid="{19BA0435-91D0-49BC-9656-FB7EC98EE0E6}"/>
-    <hyperlink ref="G78" r:id="rId34" xr:uid="{D049DB7A-F7EF-462E-BC8F-783F813A2489}"/>
-    <hyperlink ref="G79" r:id="rId35" xr:uid="{14AEC803-0DCA-4AF9-B580-36C74BB588A1}"/>
-    <hyperlink ref="G81" r:id="rId36" xr:uid="{E13FE73D-133B-42C8-89EF-15EE75971845}"/>
-    <hyperlink ref="H2" r:id="rId37" xr:uid="{F481C379-922B-4BDB-9921-EEE7A6832199}"/>
-    <hyperlink ref="H49" r:id="rId38" xr:uid="{57032A4F-4ED1-4532-8C26-3B565ED54062}"/>
-    <hyperlink ref="H50" r:id="rId39" xr:uid="{4CC96FEA-D56C-40D6-BDE8-EC46983934E0}"/>
-    <hyperlink ref="H66" r:id="rId40" xr:uid="{55A96873-51BA-44CD-A9EF-BBE68DE0B5C3}"/>
+    <hyperlink ref="G25" r:id="rId1" xr:uid="{0D3D4A6D-9999-4B5D-A86B-07DC2ABFD9CE}"/>
+    <hyperlink ref="G80" r:id="rId2" xr:uid="{14AEC803-0DCA-4AF9-B580-36C74BB588A1}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{F481C379-922B-4BDB-9921-EEE7A6832199}"/>
+    <hyperlink ref="H50" r:id="rId4" xr:uid="{57032A4F-4ED1-4532-8C26-3B565ED54062}"/>
+    <hyperlink ref="H51" r:id="rId5" xr:uid="{4CC96FEA-D56C-40D6-BDE8-EC46983934E0}"/>
+    <hyperlink ref="H67" r:id="rId6" xr:uid="{55A96873-51BA-44CD-A9EF-BBE68DE0B5C3}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{BA92460A-5C71-4ACE-BBB5-DA2C24BE2155}"/>
+    <hyperlink ref="H48" r:id="rId8" xr:uid="{4A389C03-C0A4-4E7C-8C7B-C5DF3424904F}"/>
+    <hyperlink ref="H5" r:id="rId9" xr:uid="{ADE1A9D0-B137-45DE-9D1F-D0E74B79F7FD}"/>
+    <hyperlink ref="H2" r:id="rId10" xr:uid="{ED987DAA-758E-435C-8257-EB7E4805F7D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3CF505-B293-4FF1-AAB3-D4AA176BF5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C369E9C-E097-4E4D-B4CB-4D3286C0BDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1915">
   <si>
     <t>name</t>
   </si>
@@ -5765,6 +5765,12 @@
   </si>
   <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/664220%20-%20MSCI%20EM%20(Emerging%20Markets)%20IMI%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>GOLD_FRED</t>
+  </si>
+  <si>
+    <t>GOLD_LBMA</t>
   </si>
 </sst>
 </file>
@@ -5868,71 +5874,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5956,6 +5898,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6027,7 +5977,7 @@
     <sortCondition ref="A1:A800"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{5A90A855-91ED-41CE-B4B6-41473BC05892}" name="name"/>
     <tableColumn id="3" xr3:uid="{A6DB99C2-C65F-4DE9-8199-32DE52DA7D1D}" name="url"/>
   </tableColumns>
@@ -6047,31 +5997,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}" name="Table1" displayName="Table1" ref="B2:C30" totalsRowShown="0" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}" name="Table1" displayName="Table1" ref="B2:C30" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="B2:C30" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2DEF44DB-B91A-4361-87EC-E5D8D821409D}" name="Aree" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{8FBA11E1-52C6-43A5-A4B9-0B712AC388F0}" name="Note" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{2DEF44DB-B91A-4361-87EC-E5D8D821409D}" name="Aree" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{8FBA11E1-52C6-43A5-A4B9-0B712AC388F0}" name="Note" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:H81" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:H81" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:H81" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H81">
-    <sortCondition sortBy="cellColor" ref="G1:G81" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="G1:G81" dxfId="8"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{89FD6C47-21B3-47AF-97FD-B2BF9E03DF02}" name="Original source" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{89FD6C47-21B3-47AF-97FD-B2BF9E03DF02}" name="Original source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16053,8 +16003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17486,7 +17436,7 @@
         <v>1831</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1829</v>
+        <v>1913</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>1830</v>
@@ -17506,7 +17456,7 @@
         <v>1873</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1829</v>
+        <v>1914</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>1874</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C369E9C-E097-4E4D-B4CB-4D3286C0BDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A083B-3BB9-49AA-85E7-A1D1D9C9505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5404,9 +5404,6 @@
     <t>Yahoo</t>
   </si>
   <si>
-    <t>FVSJ.F</t>
-  </si>
-  <si>
     <t>EM EX-CHINA</t>
   </si>
   <si>
@@ -5771,6 +5768,9 @@
   </si>
   <si>
     <t>GOLD_LBMA</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/FTSE%20Asia%20Pacific%20Ex%20Japan%20Historical%20Data.csv</t>
   </si>
 </sst>
 </file>
@@ -16003,8 +16003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16034,7 +16034,7 @@
         <v>1784</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1791</v>
@@ -16043,7 +16043,7 @@
         <v>1785</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -16060,13 +16060,13 @@
         <v>1732</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -16081,13 +16081,13 @@
         <v>902</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -16103,32 +16103,32 @@
         <v>442</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -16146,13 +16146,13 @@
         <v>1786</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -16185,13 +16185,13 @@
         <v>1787</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -16209,13 +16209,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -16235,10 +16235,9 @@
       <c r="E10" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>1914</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -16252,13 +16251,13 @@
         <v>398</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -16285,13 +16284,13 @@
         <v>894</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -16306,13 +16305,13 @@
         <v>890</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -16336,13 +16335,13 @@
         <v>912</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -16368,13 +16367,13 @@
         <v>1789</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -16386,16 +16385,16 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -16409,7 +16408,7 @@
         <v>1764</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -16421,7 +16420,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -16438,13 +16437,13 @@
         <v>1621</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -16455,7 +16454,7 @@
         <v>1733</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>1621</v>
@@ -16487,10 +16486,10 @@
         <v>1790</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -16504,13 +16503,13 @@
         <v>1768</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -16524,13 +16523,13 @@
         <v>1769</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -16544,13 +16543,13 @@
         <v>1658</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -16564,16 +16563,16 @@
         <v>1770</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -16587,16 +16586,16 @@
         <v>1771</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -16610,16 +16609,16 @@
         <v>1772</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -16634,13 +16633,13 @@
         <v>908</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -16667,13 +16666,13 @@
         <v>910</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -16700,13 +16699,13 @@
         <v>416</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -16736,16 +16735,16 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -16759,16 +16758,16 @@
         <v>1773</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -16780,16 +16779,16 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -16804,13 +16803,13 @@
         <v>920</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -16836,16 +16835,16 @@
         <v>1774</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -16859,16 +16858,16 @@
         <v>1775</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -16880,13 +16879,13 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G46" s="7"/>
     </row>
@@ -16908,16 +16907,16 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -16932,13 +16931,13 @@
         <v>444</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -16950,16 +16949,16 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -16974,13 +16973,13 @@
         <v>942</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -17007,13 +17006,13 @@
         <v>946</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -17028,10 +17027,10 @@
         <v>1654</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -17067,13 +17066,13 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -17085,7 +17084,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -17097,7 +17096,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -17109,7 +17108,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -17121,7 +17120,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -17133,13 +17132,13 @@
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -17154,10 +17153,10 @@
         <v>452</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -17196,10 +17195,10 @@
         <v>1705</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>1820</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -17216,13 +17215,13 @@
         <v>1714</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -17281,13 +17280,13 @@
         <v>1724</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -17302,13 +17301,13 @@
         <v>1722</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -17349,13 +17348,13 @@
         <v>1737</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -17377,25 +17376,25 @@
         <v>448</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="2" t="s">
         <v>448</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="2" t="s">
@@ -17404,65 +17403,65 @@
     </row>
     <row r="79" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>1827</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>1828</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>1829</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="G80" s="7" t="s">
         <v>1831</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>1873</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="G81" s="7" t="s">
         <v>1874</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>1875</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A083B-3BB9-49AA-85E7-A1D1D9C9505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C0FF02-7D1B-45B6-82A9-57B88EDF1CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Originale" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Originale!$A$1:$C$800</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5653,9 +5666,6 @@
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/gold/LBMA-gold_M-gold_M_EUR_AM_AVG.csv</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/700211%20-%20MSCI%20EFM%20Africa%20Top%2050%20Capped%20Index%20.xlsx.xlsx</t>
-  </si>
-  <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/899903%20-%20MSCI%20AC%20Asia%20Pacific%20ex%20Japan%20Index%20.xlsx</t>
   </si>
   <si>
@@ -5680,9 +5690,6 @@
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/713021%20-%20MSCI%20EM%20(Emerging%20Markets)%20ex%20China%20Index%20.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/891800%20-%20MSCI%20EM%20(Emerging%20Markets)%20Index%20.xlsx.xlsx</t>
-  </si>
-  <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106233%20-%20MSCI%20Europe%20Small%20Cap%20Index%20.xlsx</t>
   </si>
   <si>
@@ -5692,9 +5699,6 @@
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655042%20-%20MSCI%20AC%20Far%20East%20ex%20Japan%20Small%20Cap%20Index%20.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/935600%20-%20MSCI%20India%20Index%20.xlsx.xlsx</t>
-  </si>
-  <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105767%20-%20MSCI%20Indonesia%20Index%20.xlsx</t>
   </si>
   <si>
@@ -5719,9 +5723,6 @@
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/991400%20-%20MSCI%20Pacific%20ex%20Japan%20Index%20.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/971000%20-%20MSCI%20South%20Africa%20Index%20.xlsx.xlsx</t>
-  </si>
-  <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/972400%20-%20MSCI%20Spain%20Index%20.xlsx</t>
   </si>
   <si>
@@ -5752,9 +5753,6 @@
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655061%20-%20MSCI%20EM%20(Emerging%20Markets)%20Small%20Cap%20Index%20.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/930000%20-%20MSCI%20Greece%20Index%20.xlsx.xlsx</t>
-  </si>
-  <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/998100%20-%20MSCI%20Singapore%20Index%20.xlsx</t>
   </si>
   <si>
@@ -5771,6 +5769,21 @@
   </si>
   <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/FTSE%20Asia%20Pacific%20Ex%20Japan%20Historical%20Data.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/930000%20-%20MSCI%20Greece%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/700211%20-%20MSCI%20EFM%20Africa%20Top%2050%20Capped%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/891800%20-%20MSCI%20EM%20(Emerging%20Markets)%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/935600%20-%20MSCI%20India%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/971000%20-%20MSCI%20South%20Africa%20Index%20.xlsx</t>
   </si>
 </sst>
 </file>
@@ -6318,14 +6331,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="86.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1783</v>
       </c>
@@ -6336,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6347,7 +6360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6358,7 +6371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6369,7 +6382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6380,7 +6393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6391,7 +6404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6402,7 +6415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6413,7 +6426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6424,7 +6437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6435,7 +6448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6446,7 +6459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6457,7 +6470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6468,7 +6481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6479,7 +6492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6490,7 +6503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6501,7 +6514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6512,7 +6525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6523,7 +6536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6534,7 +6547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6545,7 +6558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6556,7 +6569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6567,7 +6580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6578,7 +6591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6589,7 +6602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6600,7 +6613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6611,7 +6624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6622,7 +6635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6633,7 +6646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6644,7 +6657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6655,7 +6668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6666,7 +6679,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6677,7 +6690,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6688,7 +6701,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6699,7 +6712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6710,7 +6723,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6721,7 +6734,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6732,7 +6745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6743,7 +6756,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6754,7 +6767,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6765,7 +6778,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6776,7 +6789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6787,7 +6800,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6798,7 +6811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6809,7 +6822,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6820,7 +6833,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6831,7 +6844,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6842,7 +6855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6853,7 +6866,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6864,7 +6877,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6875,7 +6888,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6886,7 +6899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6897,7 +6910,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6908,7 +6921,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6919,7 +6932,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6930,7 +6943,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6941,7 +6954,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6952,7 +6965,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6963,7 +6976,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6974,7 +6987,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6985,7 +6998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6996,7 +7009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7007,7 +7020,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7018,7 +7031,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7029,7 +7042,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7040,7 +7053,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7051,7 +7064,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7062,7 +7075,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7073,7 +7086,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7084,7 +7097,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7095,7 +7108,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7106,7 +7119,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7117,7 +7130,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7128,7 +7141,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7139,7 +7152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7150,7 +7163,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7161,7 +7174,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7172,7 +7185,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7183,7 +7196,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7194,7 +7207,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7205,7 +7218,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7216,7 +7229,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7227,7 +7240,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7238,7 +7251,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7249,7 +7262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7260,7 +7273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7271,7 +7284,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7282,7 +7295,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7293,7 +7306,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7304,7 +7317,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7315,7 +7328,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7326,7 +7339,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7337,7 +7350,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7348,7 +7361,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7359,7 +7372,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7370,7 +7383,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7381,7 +7394,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7392,7 +7405,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7403,7 +7416,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7414,7 +7427,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7425,7 +7438,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7436,7 +7449,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7447,7 +7460,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7458,7 +7471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7469,7 +7482,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7480,7 +7493,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7491,7 +7504,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7502,7 +7515,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7513,7 +7526,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7524,7 +7537,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7535,7 +7548,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7546,7 +7559,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7557,7 +7570,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7568,7 +7581,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7579,7 +7592,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7590,7 +7603,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7601,7 +7614,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7612,7 +7625,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7623,7 +7636,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7634,7 +7647,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7645,7 +7658,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7656,7 +7669,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7667,7 +7680,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7678,7 +7691,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7689,7 +7702,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7700,7 +7713,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7711,7 +7724,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7722,7 +7735,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7733,7 +7746,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7744,7 +7757,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7755,7 +7768,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7766,7 +7779,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7777,7 +7790,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7788,7 +7801,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7799,7 +7812,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7810,7 +7823,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7821,7 +7834,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7832,7 +7845,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7843,7 +7856,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7854,7 +7867,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7865,7 +7878,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7876,7 +7889,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7887,7 +7900,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7898,7 +7911,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7909,7 +7922,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7920,7 +7933,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7931,7 +7944,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7942,7 +7955,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7953,7 +7966,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7964,7 +7977,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7975,7 +7988,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7986,7 +7999,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7997,7 +8010,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8008,7 +8021,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8019,7 +8032,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8030,7 +8043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8041,7 +8054,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8052,7 +8065,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8063,7 +8076,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8074,7 +8087,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8085,7 +8098,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8096,7 +8109,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8107,7 +8120,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8118,7 +8131,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8129,7 +8142,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8140,7 +8153,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8151,7 +8164,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8162,7 +8175,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8173,7 +8186,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8184,7 +8197,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8195,7 +8208,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8206,7 +8219,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8217,7 +8230,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8228,7 +8241,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8239,7 +8252,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8250,7 +8263,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8261,7 +8274,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8272,7 +8285,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8283,7 +8296,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8294,7 +8307,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8305,7 +8318,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8316,7 +8329,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8327,7 +8340,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8338,7 +8351,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8349,7 +8362,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8360,7 +8373,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8371,7 +8384,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8382,7 +8395,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8393,7 +8406,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8404,7 +8417,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8415,7 +8428,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8426,7 +8439,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8437,7 +8450,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8448,7 +8461,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8459,7 +8472,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8470,7 +8483,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8481,7 +8494,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8492,7 +8505,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8503,7 +8516,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8514,7 +8527,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8525,7 +8538,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8536,7 +8549,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8547,7 +8560,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8558,7 +8571,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8569,7 +8582,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8580,7 +8593,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8591,7 +8604,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8602,7 +8615,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8613,7 +8626,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8624,7 +8637,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8635,7 +8648,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8646,7 +8659,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8657,7 +8670,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8668,7 +8681,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -8679,7 +8692,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -8690,7 +8703,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -8701,7 +8714,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8712,7 +8725,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8723,7 +8736,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8734,7 +8747,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8745,7 +8758,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -8756,7 +8769,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -8767,7 +8780,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -8778,7 +8791,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -8789,7 +8802,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -8800,7 +8813,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -8811,7 +8824,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -8822,7 +8835,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -8833,7 +8846,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -8844,7 +8857,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -8855,7 +8868,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -8866,7 +8879,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -8877,7 +8890,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -8888,7 +8901,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8899,7 +8912,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8910,7 +8923,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8921,7 +8934,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8932,7 +8945,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8943,7 +8956,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8954,7 +8967,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8965,7 +8978,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8976,7 +8989,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8987,7 +9000,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8998,7 +9011,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -9009,7 +9022,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -9020,7 +9033,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -9031,7 +9044,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -9042,7 +9055,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -9053,7 +9066,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -9064,7 +9077,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -9075,7 +9088,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -9086,7 +9099,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -9097,7 +9110,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -9108,7 +9121,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -9119,7 +9132,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -9130,7 +9143,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -9141,7 +9154,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -9152,7 +9165,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -9163,7 +9176,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -9174,7 +9187,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -9185,7 +9198,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -9196,7 +9209,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -9207,7 +9220,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -9218,7 +9231,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -9229,7 +9242,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -9240,7 +9253,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -9251,7 +9264,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -9262,7 +9275,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -9273,7 +9286,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9284,7 +9297,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9295,7 +9308,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9306,7 +9319,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9317,7 +9330,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -9328,7 +9341,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -9339,7 +9352,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -9350,7 +9363,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -9361,7 +9374,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -9372,7 +9385,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -9383,7 +9396,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -9394,7 +9407,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -9405,7 +9418,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -9416,7 +9429,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -9427,7 +9440,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -9438,7 +9451,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -9449,7 +9462,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -9460,7 +9473,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -9471,7 +9484,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -9482,7 +9495,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -9493,7 +9506,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -9504,7 +9517,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -9515,7 +9528,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -9526,7 +9539,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -9537,7 +9550,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -9548,7 +9561,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9559,7 +9572,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9570,7 +9583,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9581,7 +9594,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9592,7 +9605,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9603,7 +9616,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -9614,7 +9627,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -9625,7 +9638,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -9636,7 +9649,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -9647,7 +9660,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -9658,7 +9671,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -9669,7 +9682,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -9680,7 +9693,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -9691,7 +9704,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -9702,7 +9715,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -9713,7 +9726,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -9724,7 +9737,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -9735,7 +9748,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -9746,7 +9759,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -9757,7 +9770,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -9768,7 +9781,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -9779,7 +9792,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -9790,7 +9803,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -9801,7 +9814,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -9812,7 +9825,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -9823,7 +9836,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -9834,7 +9847,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -9845,7 +9858,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -9856,7 +9869,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -9867,7 +9880,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -9878,7 +9891,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -9889,7 +9902,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -9900,7 +9913,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -9911,7 +9924,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9922,7 +9935,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -9933,7 +9946,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -9944,7 +9957,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -9955,7 +9968,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -9966,7 +9979,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -9977,7 +9990,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -9988,7 +10001,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -9999,7 +10012,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -10010,7 +10023,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -10021,7 +10034,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -10032,7 +10045,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -10043,7 +10056,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -10054,7 +10067,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -10065,7 +10078,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -10076,7 +10089,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -10087,7 +10100,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -10098,7 +10111,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -10109,7 +10122,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -10120,7 +10133,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -10131,7 +10144,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -10142,7 +10155,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -10153,7 +10166,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -10164,7 +10177,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -10175,7 +10188,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -10186,7 +10199,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -10197,7 +10210,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -10208,7 +10221,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -10219,7 +10232,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -10230,7 +10243,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -10241,7 +10254,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -10252,7 +10265,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -10263,7 +10276,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -10274,7 +10287,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -10285,7 +10298,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -10296,7 +10309,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -10307,7 +10320,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -10318,7 +10331,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -10329,7 +10342,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -10340,7 +10353,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -10351,7 +10364,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -10362,7 +10375,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -10373,7 +10386,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -10384,7 +10397,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -10395,7 +10408,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -10406,7 +10419,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -10417,7 +10430,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -10428,7 +10441,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -10439,7 +10452,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -10450,7 +10463,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -10461,7 +10474,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -10472,7 +10485,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -10483,7 +10496,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -10494,7 +10507,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -10505,7 +10518,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -10516,7 +10529,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -10527,7 +10540,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -10538,7 +10551,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -10549,7 +10562,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -10560,7 +10573,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -10571,7 +10584,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -10582,7 +10595,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -10593,7 +10606,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -10604,7 +10617,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -10615,7 +10628,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -10626,7 +10639,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -10637,7 +10650,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -10648,7 +10661,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -10659,7 +10672,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -10670,7 +10683,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -10681,7 +10694,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -10692,7 +10705,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -10703,7 +10716,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -10714,7 +10727,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -10725,7 +10738,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -10736,7 +10749,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -10747,7 +10760,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -10758,7 +10771,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -10769,7 +10782,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -10780,7 +10793,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -10791,7 +10804,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -10802,7 +10815,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -10813,7 +10826,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -10824,7 +10837,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -10835,7 +10848,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -10846,7 +10859,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -10857,7 +10870,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -10868,7 +10881,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -10879,7 +10892,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -10890,7 +10903,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -10901,7 +10914,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -10912,7 +10925,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10923,7 +10936,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10934,7 +10947,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10945,7 +10958,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10956,7 +10969,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10967,7 +10980,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10978,7 +10991,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10989,7 +11002,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -11000,7 +11013,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -11011,7 +11024,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -11022,7 +11035,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -11033,7 +11046,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -11044,7 +11057,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -11055,7 +11068,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -11066,7 +11079,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -11077,7 +11090,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -11088,7 +11101,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -11099,7 +11112,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -11110,7 +11123,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -11121,7 +11134,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -11132,7 +11145,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -11143,7 +11156,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -11154,7 +11167,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -11165,7 +11178,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -11176,7 +11189,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -11187,7 +11200,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -11198,7 +11211,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -11209,7 +11222,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -11220,7 +11233,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -11231,7 +11244,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -11242,7 +11255,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -11253,7 +11266,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -11264,7 +11277,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -11275,7 +11288,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -11286,7 +11299,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -11297,7 +11310,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -11308,7 +11321,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -11319,7 +11332,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -11330,7 +11343,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -11341,7 +11354,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -11352,7 +11365,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -11363,7 +11376,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -11374,7 +11387,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -11385,7 +11398,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -11396,7 +11409,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11407,7 +11420,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11418,7 +11431,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11429,7 +11442,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11440,7 +11453,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11451,7 +11464,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11462,7 +11475,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11473,7 +11486,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11484,7 +11497,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11495,7 +11508,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11506,7 +11519,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11517,7 +11530,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11528,7 +11541,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11539,7 +11552,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11550,7 +11563,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11561,7 +11574,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11572,7 +11585,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11583,7 +11596,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11594,7 +11607,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11605,7 +11618,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11616,7 +11629,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11627,7 +11640,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11638,7 +11651,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11649,7 +11662,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11660,7 +11673,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11671,7 +11684,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11682,7 +11695,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11693,7 +11706,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11704,7 +11717,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11715,7 +11728,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11726,7 +11739,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11737,7 +11750,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11748,7 +11761,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11759,7 +11772,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11770,7 +11783,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11781,7 +11794,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11792,7 +11805,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11803,7 +11816,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11814,7 +11827,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11825,7 +11838,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11836,7 +11849,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11847,7 +11860,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11858,7 +11871,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11869,7 +11882,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -11880,7 +11893,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -11891,7 +11904,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -11902,7 +11915,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -11913,7 +11926,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -11924,7 +11937,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -11935,7 +11948,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -11946,7 +11959,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -11957,7 +11970,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -11968,7 +11981,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -11979,7 +11992,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -11990,7 +12003,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -12001,7 +12014,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -12012,7 +12025,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -12023,7 +12036,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -12034,7 +12047,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -12045,7 +12058,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -12056,7 +12069,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -12067,7 +12080,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -12078,7 +12091,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -12089,7 +12102,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -12100,7 +12113,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -12111,7 +12124,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -12122,7 +12135,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -12133,7 +12146,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -12144,7 +12157,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -12155,7 +12168,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -12166,7 +12179,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -12177,7 +12190,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -12188,7 +12201,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -12199,7 +12212,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -12210,7 +12223,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -12221,7 +12234,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -12232,7 +12245,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -12243,7 +12256,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -12254,7 +12267,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -12265,7 +12278,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -12276,7 +12289,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -12287,7 +12300,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -12298,7 +12311,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -12309,7 +12322,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -12320,7 +12333,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -12331,7 +12344,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -12342,7 +12355,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -12353,7 +12366,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -12364,7 +12377,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -12375,7 +12388,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -12386,7 +12399,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -12397,7 +12410,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -12408,7 +12421,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -12419,7 +12432,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -12430,7 +12443,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -12441,7 +12454,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -12452,7 +12465,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -12463,7 +12476,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -12474,7 +12487,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -12485,7 +12498,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -12496,7 +12509,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -12507,7 +12520,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -12518,7 +12531,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -12529,7 +12542,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -12540,7 +12553,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -12551,7 +12564,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -12562,7 +12575,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -12573,7 +12586,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -12584,7 +12597,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -12595,7 +12608,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -12606,7 +12619,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -12617,7 +12630,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -12628,7 +12641,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -12639,7 +12652,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -12650,7 +12663,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -12661,7 +12674,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -12672,7 +12685,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -12683,7 +12696,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -12694,7 +12707,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -12705,7 +12718,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -12716,7 +12729,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -12727,7 +12740,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -12738,7 +12751,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -12749,7 +12762,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -12760,7 +12773,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -12771,7 +12784,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -12782,7 +12795,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -12793,7 +12806,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -12804,7 +12817,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -12815,7 +12828,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -12826,7 +12839,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -12837,7 +12850,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -12848,7 +12861,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -12859,7 +12872,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -12870,7 +12883,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -12881,7 +12894,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -12892,7 +12905,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -12903,7 +12916,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -12914,7 +12927,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -12925,7 +12938,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -12936,7 +12949,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -12947,7 +12960,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -12958,7 +12971,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -12969,7 +12982,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -12980,7 +12993,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -12991,7 +13004,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -13002,7 +13015,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -13013,7 +13026,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -13024,7 +13037,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -13035,7 +13048,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -13046,7 +13059,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -13057,7 +13070,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -13068,7 +13081,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -13079,7 +13092,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -13090,7 +13103,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -13101,7 +13114,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -13112,7 +13125,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -13123,7 +13136,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -13134,7 +13147,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -13145,7 +13158,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -13156,7 +13169,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -13167,7 +13180,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -13178,7 +13191,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -13189,7 +13202,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -13200,7 +13213,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -13211,7 +13224,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -13222,7 +13235,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -13233,7 +13246,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -13244,7 +13257,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -13255,7 +13268,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -13266,7 +13279,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -13277,7 +13290,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -13288,7 +13301,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -13299,7 +13312,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -13310,7 +13323,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -13321,7 +13334,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -13332,7 +13345,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -13343,7 +13356,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -13354,7 +13367,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -13365,7 +13378,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -13376,7 +13389,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -13387,7 +13400,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -13398,7 +13411,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -13409,7 +13422,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -13420,7 +13433,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -13431,7 +13444,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -13442,7 +13455,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -13453,7 +13466,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -13464,7 +13477,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -13475,7 +13488,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -13486,7 +13499,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -13497,7 +13510,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -13508,7 +13521,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -13519,7 +13532,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -13530,7 +13543,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -13541,7 +13554,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -13552,7 +13565,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -13563,7 +13576,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -13574,7 +13587,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -13585,7 +13598,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -13596,7 +13609,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -13607,7 +13620,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -13618,7 +13631,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -13629,7 +13642,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -13640,7 +13653,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -13651,7 +13664,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -13662,7 +13675,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -13673,7 +13686,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -13684,7 +13697,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -13695,7 +13708,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -13706,7 +13719,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -13717,7 +13730,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -13728,7 +13741,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -13739,7 +13752,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -13750,7 +13763,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -13761,7 +13774,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -13772,7 +13785,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -13783,7 +13796,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -13794,7 +13807,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -13805,7 +13818,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -13816,7 +13829,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -13827,7 +13840,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -13838,7 +13851,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -13849,7 +13862,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -13860,7 +13873,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -13871,7 +13884,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -13882,7 +13895,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -13893,7 +13906,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -13904,7 +13917,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -13915,7 +13928,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -13926,7 +13939,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -13937,7 +13950,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -13948,7 +13961,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -13959,7 +13972,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -13970,7 +13983,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -13981,7 +13994,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -13992,7 +14005,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -14003,7 +14016,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -14014,7 +14027,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -14025,7 +14038,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -14036,7 +14049,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -14047,7 +14060,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -14058,7 +14071,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -14069,7 +14082,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -14080,7 +14093,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -14091,7 +14104,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -14102,7 +14115,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -14113,7 +14126,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -14124,7 +14137,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -14135,7 +14148,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -14146,7 +14159,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -14157,7 +14170,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -14168,7 +14181,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -14179,7 +14192,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -14190,7 +14203,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -14201,7 +14214,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -14212,7 +14225,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -14223,7 +14236,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -14234,7 +14247,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -14245,7 +14258,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -14256,7 +14269,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -14267,7 +14280,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -14278,7 +14291,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -14289,7 +14302,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -14300,7 +14313,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -14311,7 +14324,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -14322,7 +14335,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -14333,7 +14346,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -14344,7 +14357,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -14355,7 +14368,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -14366,7 +14379,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -14377,7 +14390,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -14388,7 +14401,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -14399,7 +14412,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -14410,7 +14423,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -14421,7 +14434,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -14432,7 +14445,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -14443,7 +14456,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -14454,7 +14467,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -14465,7 +14478,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -14476,7 +14489,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -14487,7 +14500,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -14498,7 +14511,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -14509,7 +14522,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -14520,7 +14533,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -14531,7 +14544,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -14542,7 +14555,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -14553,7 +14566,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -14564,7 +14577,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -14575,7 +14588,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -14586,7 +14599,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -14597,7 +14610,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -14608,7 +14621,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -14619,7 +14632,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -14630,7 +14643,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -14641,7 +14654,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -14652,7 +14665,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -14663,7 +14676,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -14674,7 +14687,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -14685,7 +14698,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -14696,7 +14709,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -14707,7 +14720,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -14718,7 +14731,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -14729,7 +14742,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -14740,7 +14753,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -14751,7 +14764,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -14762,7 +14775,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -14773,7 +14786,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -14784,7 +14797,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -14795,7 +14808,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -14806,7 +14819,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -14817,7 +14830,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -14828,7 +14841,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -14839,7 +14852,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -14850,7 +14863,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -14861,7 +14874,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -14872,7 +14885,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -14883,7 +14896,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -14894,7 +14907,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -14905,7 +14918,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -14916,7 +14929,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -14927,7 +14940,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -14938,7 +14951,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -14949,7 +14962,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -14960,7 +14973,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -14971,7 +14984,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -14982,7 +14995,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -14993,7 +15006,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -15004,7 +15017,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -15015,7 +15028,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -15026,7 +15039,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -15037,7 +15050,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -15048,7 +15061,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -15059,7 +15072,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -15070,7 +15083,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -15081,7 +15094,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -15092,7 +15105,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -15103,7 +15116,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -15114,7 +15127,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -15146,12 +15159,12 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1639</v>
       </c>
@@ -15159,7 +15172,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>392</v>
       </c>
@@ -15167,7 +15180,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>394</v>
       </c>
@@ -15175,7 +15188,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>396</v>
       </c>
@@ -15183,7 +15196,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>398</v>
       </c>
@@ -15191,7 +15204,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>400</v>
       </c>
@@ -15199,7 +15212,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>402</v>
       </c>
@@ -15207,7 +15220,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>404</v>
       </c>
@@ -15215,7 +15228,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>406</v>
       </c>
@@ -15223,7 +15236,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>408</v>
       </c>
@@ -15231,7 +15244,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>410</v>
       </c>
@@ -15239,7 +15252,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>412</v>
       </c>
@@ -15247,7 +15260,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>414</v>
       </c>
@@ -15255,7 +15268,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>416</v>
       </c>
@@ -15263,7 +15276,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>432</v>
       </c>
@@ -15271,7 +15284,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>434</v>
       </c>
@@ -15279,7 +15292,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>438</v>
       </c>
@@ -15287,7 +15300,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>440</v>
       </c>
@@ -15295,7 +15308,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>442</v>
       </c>
@@ -15303,7 +15316,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>444</v>
       </c>
@@ -15311,7 +15324,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>446</v>
       </c>
@@ -15319,7 +15332,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>448</v>
       </c>
@@ -15327,7 +15340,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>450</v>
       </c>
@@ -15335,7 +15348,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>452</v>
       </c>
@@ -15343,7 +15356,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>872</v>
       </c>
@@ -15351,7 +15364,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>874</v>
       </c>
@@ -15359,7 +15372,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>890</v>
       </c>
@@ -15367,7 +15380,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>894</v>
       </c>
@@ -15375,7 +15388,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>896</v>
       </c>
@@ -15383,7 +15396,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>898</v>
       </c>
@@ -15391,7 +15404,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>900</v>
       </c>
@@ -15399,7 +15412,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>902</v>
       </c>
@@ -15407,7 +15420,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>904</v>
       </c>
@@ -15415,7 +15428,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>908</v>
       </c>
@@ -15423,7 +15436,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>912</v>
       </c>
@@ -15431,7 +15444,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>916</v>
       </c>
@@ -15439,7 +15452,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>918</v>
       </c>
@@ -15447,7 +15460,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>920</v>
       </c>
@@ -15455,7 +15468,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>926</v>
       </c>
@@ -15463,7 +15476,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>930</v>
       </c>
@@ -15471,7 +15484,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>934</v>
       </c>
@@ -15479,7 +15492,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>938</v>
       </c>
@@ -15487,7 +15500,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>940</v>
       </c>
@@ -15495,7 +15508,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>942</v>
       </c>
@@ -15503,7 +15516,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>944</v>
       </c>
@@ -15511,7 +15524,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>946</v>
       </c>
@@ -15519,7 +15532,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>950</v>
       </c>
@@ -15527,7 +15540,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>1306</v>
       </c>
@@ -15535,7 +15548,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>1310</v>
       </c>
@@ -15543,7 +15556,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>1312</v>
       </c>
@@ -15551,7 +15564,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>1316</v>
       </c>
@@ -15559,7 +15572,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>1318</v>
       </c>
@@ -15567,7 +15580,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>1320</v>
       </c>
@@ -15575,7 +15588,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>1322</v>
       </c>
@@ -15583,7 +15596,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>1326</v>
       </c>
@@ -15591,7 +15604,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>1328</v>
       </c>
@@ -15599,7 +15612,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>1330</v>
       </c>
@@ -15607,7 +15620,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>1332</v>
       </c>
@@ -15615,7 +15628,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>1334</v>
       </c>
@@ -15623,7 +15636,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>1336</v>
       </c>
@@ -15631,7 +15644,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>1338</v>
       </c>
@@ -15639,7 +15652,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>1340</v>
       </c>
@@ -15647,7 +15660,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>1342</v>
       </c>
@@ -15655,7 +15668,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>1344</v>
       </c>
@@ -15663,7 +15676,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>1346</v>
       </c>
@@ -15671,7 +15684,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>1350</v>
       </c>
@@ -15679,7 +15692,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>1356</v>
       </c>
@@ -15687,7 +15700,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>1358</v>
       </c>
@@ -15695,7 +15708,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>1360</v>
       </c>
@@ -15703,7 +15716,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>1366</v>
       </c>
@@ -15711,7 +15724,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>1368</v>
       </c>
@@ -15719,7 +15732,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>1370</v>
       </c>
@@ -15727,7 +15740,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>1372</v>
       </c>
@@ -15735,7 +15748,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>1376</v>
       </c>
@@ -15743,7 +15756,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>1378</v>
       </c>
@@ -15751,7 +15764,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>1380</v>
       </c>
@@ -15759,7 +15772,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>1382</v>
       </c>
@@ -15783,15 +15796,15 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1600</v>
       </c>
@@ -15799,7 +15812,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1601</v>
       </c>
@@ -15807,7 +15820,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1604</v>
       </c>
@@ -15815,7 +15828,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1074</v>
       </c>
@@ -15823,7 +15836,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>622</v>
       </c>
@@ -15831,7 +15844,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>618</v>
       </c>
@@ -15839,17 +15852,17 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>1611</v>
       </c>
@@ -15857,7 +15870,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -15865,7 +15878,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>660</v>
       </c>
@@ -15873,7 +15886,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>1615</v>
       </c>
@@ -15881,17 +15894,17 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>600</v>
       </c>
@@ -15899,7 +15912,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>1619</v>
       </c>
@@ -15907,7 +15920,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>1621</v>
       </c>
@@ -15915,7 +15928,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>1623</v>
       </c>
@@ -15923,7 +15936,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>606</v>
       </c>
@@ -15931,7 +15944,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>1626</v>
       </c>
@@ -15939,22 +15952,22 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>1631</v>
       </c>
@@ -15962,7 +15975,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>1634</v>
       </c>
@@ -15970,12 +15983,12 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>1636</v>
       </c>
@@ -15983,7 +15996,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>1638</v>
       </c>
@@ -16003,24 +16016,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="C74" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="2" customWidth="1"/>
-    <col min="4" max="4" width="80.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="80.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1659</v>
       </c>
@@ -16046,7 +16059,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1732</v>
       </c>
@@ -16063,13 +16076,13 @@
         <v>1817</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1661</v>
       </c>
@@ -16084,14 +16097,14 @@
         <v>1817</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1849</v>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1680</v>
       </c>
@@ -16106,14 +16119,14 @@
         <v>1817</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1859</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1832</v>
       </c>
@@ -16125,14 +16138,14 @@
         <v>1817</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>1871</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1707</v>
       </c>
@@ -16149,14 +16162,14 @@
         <v>1817</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1875</v>
+        <v>1911</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>1835</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1707</v>
       </c>
@@ -16171,7 +16184,7 @@
       <c r="G7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1726</v>
       </c>
@@ -16188,14 +16201,14 @@
         <v>1817</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>1836</v>
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1683</v>
       </c>
@@ -16212,14 +16225,14 @@
         <v>1817</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1837</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1761</v>
       </c>
@@ -16236,10 +16249,10 @@
         <v>1819</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1651</v>
       </c>
@@ -16254,13 +16267,13 @@
         <v>1817</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16272,7 +16285,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16287,13 +16300,13 @@
         <v>1817</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1669</v>
       </c>
@@ -16308,13 +16321,13 @@
         <v>1817</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16323,7 +16336,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16338,13 +16351,13 @@
         <v>1817</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16353,7 +16366,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1609</v>
       </c>
@@ -16370,13 +16383,13 @@
         <v>1817</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16391,13 +16404,13 @@
         <v>1817</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16411,7 +16424,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16423,7 +16436,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16440,13 +16453,13 @@
         <v>1817</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>1884</v>
+        <v>1912</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16460,7 +16473,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16472,7 +16485,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1749</v>
       </c>
@@ -16492,7 +16505,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16512,7 +16525,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16532,7 +16545,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1652</v>
       </c>
@@ -16552,7 +16565,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1741</v>
       </c>
@@ -16569,13 +16582,13 @@
         <v>1817</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1685</v>
       </c>
@@ -16592,13 +16605,13 @@
         <v>1817</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1886</v>
-      </c>
-      <c r="H30" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1751</v>
       </c>
@@ -16615,13 +16628,13 @@
         <v>1817</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16636,13 +16649,13 @@
         <v>1817</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>1888</v>
+        <v>1913</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16654,7 +16667,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16669,13 +16682,13 @@
         <v>1817</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16687,7 +16700,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16702,13 +16715,13 @@
         <v>1817</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16717,7 +16730,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16726,7 +16739,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1753</v>
       </c>
@@ -16741,13 +16754,13 @@
         <v>1817</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1667</v>
       </c>
@@ -16764,13 +16777,13 @@
         <v>1817</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1696</v>
       </c>
@@ -16785,13 +16798,13 @@
         <v>1817</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16806,13 +16819,13 @@
         <v>1817</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16824,7 +16837,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1665</v>
       </c>
@@ -16841,13 +16854,13 @@
         <v>1817</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1726</v>
       </c>
@@ -16864,13 +16877,13 @@
         <v>1817</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16889,7 +16902,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16898,7 +16911,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1712</v>
       </c>
@@ -16913,13 +16926,13 @@
         <v>1817</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1897</v>
+        <v>1914</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1663</v>
       </c>
@@ -16934,13 +16947,13 @@
         <v>1817</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1701</v>
       </c>
@@ -16955,13 +16968,13 @@
         <v>1817</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16976,13 +16989,13 @@
         <v>1817</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1675</v>
       </c>
@@ -16994,7 +17007,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1703</v>
       </c>
@@ -17009,13 +17022,13 @@
         <v>1817</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>1864</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1654</v>
       </c>
@@ -17033,7 +17046,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1654</v>
       </c>
@@ -17045,7 +17058,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1654</v>
       </c>
@@ -17057,7 +17070,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1747</v>
       </c>
@@ -17075,7 +17088,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17087,7 +17100,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17099,7 +17112,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17111,7 +17124,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17123,7 +17136,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>452</v>
       </c>
@@ -17141,7 +17154,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>452</v>
       </c>
@@ -17159,7 +17172,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>452</v>
       </c>
@@ -17171,7 +17184,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>452</v>
       </c>
@@ -17183,7 +17196,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1705</v>
       </c>
@@ -17201,7 +17214,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1714</v>
       </c>
@@ -17218,13 +17231,13 @@
         <v>1817</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1714</v>
       </c>
@@ -17238,7 +17251,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1714</v>
       </c>
@@ -17252,7 +17265,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1714</v>
       </c>
@@ -17266,7 +17279,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1724</v>
       </c>
@@ -17283,13 +17296,13 @@
         <v>1817</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>1866</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17304,13 +17317,13 @@
         <v>1817</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>1867</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17322,7 +17335,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17336,7 +17349,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17351,13 +17364,13 @@
         <v>1817</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>1868</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17371,7 +17384,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>448</v>
       </c>
@@ -17386,13 +17399,13 @@
         <v>1817</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>1824</v>
       </c>
@@ -17401,7 +17414,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>1825</v>
       </c>
@@ -17418,13 +17431,13 @@
         <v>1817</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>1828</v>
       </c>
@@ -17435,7 +17448,7 @@
         <v>1830</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>1829</v>
@@ -17444,7 +17457,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>1828</v>
       </c>
@@ -17455,7 +17468,7 @@
         <v>1872</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>1873</v>
@@ -17477,11 +17490,18 @@
     <hyperlink ref="H48" r:id="rId8" xr:uid="{4A389C03-C0A4-4E7C-8C7B-C5DF3424904F}"/>
     <hyperlink ref="H5" r:id="rId9" xr:uid="{ADE1A9D0-B137-45DE-9D1F-D0E74B79F7FD}"/>
     <hyperlink ref="H2" r:id="rId10" xr:uid="{ED987DAA-758E-435C-8257-EB7E4805F7D4}"/>
+    <hyperlink ref="H30" r:id="rId11" xr:uid="{27DFC5F3-1C43-4F35-B027-51E63853D613}"/>
+    <hyperlink ref="G2" r:id="rId12" xr:uid="{1BEC8403-8838-42CF-81D5-B7F48C9185B4}"/>
+    <hyperlink ref="G3" r:id="rId13" xr:uid="{00E39D44-748F-4F77-B5B2-1DD08AC7BEC2}"/>
+    <hyperlink ref="G6" r:id="rId14" xr:uid="{BAD46D4F-19D3-4D27-A395-7CDDD5C7F066}"/>
+    <hyperlink ref="G22" r:id="rId15" xr:uid="{DEBEB9CD-8895-4448-AC79-69F914AEFF23}"/>
+    <hyperlink ref="G32" r:id="rId16" xr:uid="{8DB6E37E-AA68-4357-BDC2-43A38958722B}"/>
+    <hyperlink ref="G48" r:id="rId17" xr:uid="{3C1DCE56-55D9-44A5-85F5-00D1C5496012}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C0FF02-7D1B-45B6-82A9-57B88EDF1CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312DBD6A-5770-493C-B380-EFA9B08F64F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Originale" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1916">
   <si>
     <t>name</t>
   </si>
@@ -5327,9 +5327,6 @@
     <t>Asia ex China ex Japan</t>
   </si>
   <si>
-    <t>India 32,50%, Taiwan 29,85%, Corea del Sud 17,28%, Hong Kong 6,48%, Singapore 4,80%, Malesia 2,52%, Tailandia 2,13%, Indonesia 1,94%, Altri 2,17%</t>
-  </si>
-  <si>
     <t>Polonia 71,49%, Ungheria 18,11%, Repubblica Ceca 10,40%</t>
   </si>
   <si>
@@ -5768,9 +5765,6 @@
     <t>GOLD_LBMA</t>
   </si>
   <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/FTSE%20Asia%20Pacific%20Ex%20Japan%20Historical%20Data.csv</t>
-  </si>
-  <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/930000%20-%20MSCI%20Greece%20Index%20.xlsx</t>
   </si>
   <si>
@@ -5784,6 +5778,16 @@
   </si>
   <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/971000%20-%20MSCI%20South%20Africa%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/711285</t>
+  </si>
+  <si>
+    <t>India 32,50%, Taiwan 29,85%, Corea del Sud 17,28%, Hong Kong 6,48%, Singapore 4,80%, Malesia 2,52%, Tailandia 2,13%, Indonesia 1,94%, Altri 2,17%
+Uso MSCI come proxy</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/711285%20-%20MSCI%20AC%20Asia%20ex%20Japan%20ex%20China%20Index%20.xlsx</t>
   </si>
 </sst>
 </file>
@@ -6340,7 +6344,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -16016,8 +16020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16044,19 +16048,19 @@
         <v>1602</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1816</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1791</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1785</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -16067,19 +16071,19 @@
         <v>1728</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1732</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -16094,13 +16098,13 @@
         <v>902</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -16116,32 +16120,32 @@
         <v>442</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -16156,16 +16160,16 @@
         <v>1754</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -16195,16 +16199,16 @@
         <v>1759</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -16222,17 +16226,17 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1761</v>
       </c>
@@ -16240,16 +16244,19 @@
         <v>1756</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1762</v>
+        <v>1914</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>1909</v>
+        <v>1915</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -16264,13 +16271,13 @@
         <v>398</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -16297,13 +16304,13 @@
         <v>894</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -16318,13 +16325,13 @@
         <v>890</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -16348,13 +16355,13 @@
         <v>912</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -16374,19 +16381,19 @@
         <v>1657</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -16398,16 +16405,16 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -16418,10 +16425,10 @@
         <v>1682</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -16433,7 +16440,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16444,19 +16451,19 @@
         <v>1729</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1621</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16467,7 +16474,7 @@
         <v>1733</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>1621</v>
@@ -16493,16 +16500,16 @@
         <v>1748</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16513,16 +16520,16 @@
         <v>1686</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16533,16 +16540,16 @@
         <v>1727</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16556,13 +16563,13 @@
         <v>1658</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16573,19 +16580,19 @@
         <v>1740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16596,19 +16603,19 @@
         <v>1684</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16619,19 +16626,19 @@
         <v>1750</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -16646,13 +16653,13 @@
         <v>908</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -16679,13 +16686,13 @@
         <v>910</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -16712,13 +16719,13 @@
         <v>416</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -16748,16 +16755,16 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16768,19 +16775,19 @@
         <v>1666</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -16792,16 +16799,16 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -16816,13 +16823,13 @@
         <v>920</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -16845,19 +16852,19 @@
         <v>1664</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16868,19 +16875,19 @@
         <v>1725</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -16892,13 +16899,13 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G46" s="7"/>
     </row>
@@ -16920,16 +16927,16 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -16944,13 +16951,13 @@
         <v>444</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -16962,16 +16969,16 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16986,13 +16993,13 @@
         <v>942</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -17019,13 +17026,13 @@
         <v>946</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -17040,10 +17047,10 @@
         <v>1654</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -17079,13 +17086,13 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -17097,7 +17104,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -17109,7 +17116,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -17121,7 +17128,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -17133,7 +17140,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -17145,13 +17152,13 @@
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -17166,10 +17173,10 @@
         <v>452</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -17208,10 +17215,10 @@
         <v>1705</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>1819</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -17222,19 +17229,19 @@
         <v>1715</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>1714</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -17245,7 +17252,7 @@
         <v>1716</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>1714</v>
@@ -17259,7 +17266,7 @@
         <v>1717</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>1714</v>
@@ -17273,7 +17280,7 @@
         <v>1718</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>1714</v>
@@ -17287,19 +17294,19 @@
         <v>1723</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>1724</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -17314,13 +17321,13 @@
         <v>1722</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -17343,7 +17350,7 @@
         <v>1721</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>1722</v>
@@ -17361,13 +17368,13 @@
         <v>1737</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -17378,7 +17385,7 @@
         <v>1744</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>1737</v>
@@ -17389,25 +17396,25 @@
         <v>448</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="2" t="s">
         <v>448</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="2" t="s">
@@ -17416,65 +17423,65 @@
     </row>
     <row r="79" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>1826</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>1827</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="G80" s="7" t="s">
         <v>1830</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="G81" s="7" t="s">
         <v>1873</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>1874</v>
       </c>
     </row>
   </sheetData>
@@ -17497,11 +17504,13 @@
     <hyperlink ref="G22" r:id="rId15" xr:uid="{DEBEB9CD-8895-4448-AC79-69F914AEFF23}"/>
     <hyperlink ref="G32" r:id="rId16" xr:uid="{8DB6E37E-AA68-4357-BDC2-43A38958722B}"/>
     <hyperlink ref="G48" r:id="rId17" xr:uid="{3C1DCE56-55D9-44A5-85F5-00D1C5496012}"/>
+    <hyperlink ref="H10" r:id="rId18" xr:uid="{4AF5B4D8-BF0D-43E5-B18C-97F97090EB3A}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{BF16DD84-9AE8-4A58-939F-C68B34E56906}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoerosanna/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312DBD6A-5770-493C-B380-EFA9B08F64F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC7469B-18EC-1C4F-ACBB-217E8D002F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Originale" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="1919">
   <si>
     <t>name</t>
   </si>
@@ -5788,6 +5787,15 @@
   </si>
   <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/711285%20-%20MSCI%20AC%20Asia%20ex%20Japan%20ex%20China%20Index%20.xlsx</t>
+  </si>
+  <si>
+    <t>ACWI IMI</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/indexes/index/664204</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/664204%20-%20MSCI%20ACWI%20IMI%20Index.xlsx</t>
   </si>
 </sst>
 </file>
@@ -5891,7 +5899,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5994,7 +6010,7 @@
     <sortCondition ref="A1:A800"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D73B884A-503A-4A59-8C87-18B439C847EE}" name="id" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{5A90A855-91ED-41CE-B4B6-41473BC05892}" name="name"/>
     <tableColumn id="3" xr3:uid="{A6DB99C2-C65F-4DE9-8199-32DE52DA7D1D}" name="url"/>
   </tableColumns>
@@ -6014,31 +6030,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}" name="Table1" displayName="Table1" ref="B2:C30" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}" name="Table1" displayName="Table1" ref="B2:C30" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="B2:C30" xr:uid="{B825CB39-3FB6-4064-ADC4-67E15DF50881}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2DEF44DB-B91A-4361-87EC-E5D8D821409D}" name="Aree" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{8FBA11E1-52C6-43A5-A4B9-0B712AC388F0}" name="Note" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{2DEF44DB-B91A-4361-87EC-E5D8D821409D}" name="Aree" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{8FBA11E1-52C6-43A5-A4B9-0B712AC388F0}" name="Note" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:H81" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:H81" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}" name="Table2" displayName="Table2" ref="A1:H82" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:H82" xr:uid="{82EB5BE7-D412-4225-A998-057E67F8DA2F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H81">
-    <sortCondition sortBy="cellColor" ref="G1:G81" dxfId="8"/>
+    <sortCondition sortBy="cellColor" ref="G1:G81" dxfId="9"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{89FD6C47-21B3-47AF-97FD-B2BF9E03DF02}" name="Original source" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{60FD31BC-5634-4AC8-90B2-A3D616FBC3D6}" name="Country/Area" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{540470DD-A2B3-4E39-8556-EA289CFDD467}" name="ETF" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D752676A-DDD5-4EF0-B155-46198ABE56FB}" name="Note" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{67AF040E-FE41-4ECF-B4E6-99DBE8F70E46}" name="Data label" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B3443B95-6046-496C-8F37-29C6A0B5F077}" name="Data source" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3D3BC678-D548-42C9-BDDE-6FBC4D8160B8}" name="Yahoo" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{66183E1C-249B-4B92-B75F-97E586BFDF95}" name="Link" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{89FD6C47-21B3-47AF-97FD-B2BF9E03DF02}" name="Original source" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6335,14 +6351,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1782</v>
       </c>
@@ -6353,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6364,7 +6380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6375,7 +6391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6386,7 +6402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6397,7 +6413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6408,7 +6424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6419,7 +6435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6430,7 +6446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6441,7 +6457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6452,7 +6468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6463,7 +6479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6474,7 +6490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6485,7 +6501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6496,7 +6512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6507,7 +6523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6518,7 +6534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6529,7 +6545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6540,7 +6556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6551,7 +6567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6562,7 +6578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6573,7 +6589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6584,7 +6600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6595,7 +6611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6606,7 +6622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6617,7 +6633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6628,7 +6644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6639,7 +6655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6650,7 +6666,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6661,7 +6677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6672,7 +6688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6683,7 +6699,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6694,7 +6710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6705,7 +6721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6716,7 +6732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6727,7 +6743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6738,7 +6754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6749,7 +6765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6760,7 +6776,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6771,7 +6787,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6782,7 +6798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6793,7 +6809,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6804,7 +6820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6815,7 +6831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6826,7 +6842,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6837,7 +6853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6848,7 +6864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6859,7 +6875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6870,7 +6886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6881,7 +6897,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6892,7 +6908,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6903,7 +6919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6914,7 +6930,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6925,7 +6941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6936,7 +6952,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6947,7 +6963,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6958,7 +6974,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6969,7 +6985,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6980,7 +6996,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6991,7 +7007,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7002,7 +7018,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7013,7 +7029,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7024,7 +7040,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7035,7 +7051,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7046,7 +7062,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7057,7 +7073,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7068,7 +7084,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7079,7 +7095,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7090,7 +7106,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7101,7 +7117,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7112,7 +7128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7123,7 +7139,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7134,7 +7150,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7145,7 +7161,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7156,7 +7172,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7167,7 +7183,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7178,7 +7194,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7189,7 +7205,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7200,7 +7216,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7211,7 +7227,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7222,7 +7238,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7233,7 +7249,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7244,7 +7260,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7255,7 +7271,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7266,7 +7282,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7277,7 +7293,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7288,7 +7304,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7299,7 +7315,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7310,7 +7326,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7321,7 +7337,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7332,7 +7348,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7343,7 +7359,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7354,7 +7370,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7365,7 +7381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7376,7 +7392,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7387,7 +7403,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7398,7 +7414,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7409,7 +7425,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7420,7 +7436,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7431,7 +7447,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7442,7 +7458,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7453,7 +7469,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7464,7 +7480,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7475,7 +7491,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7486,7 +7502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7497,7 +7513,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7508,7 +7524,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7519,7 +7535,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7530,7 +7546,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7541,7 +7557,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7552,7 +7568,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7563,7 +7579,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7574,7 +7590,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7585,7 +7601,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7596,7 +7612,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7607,7 +7623,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7618,7 +7634,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7629,7 +7645,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7640,7 +7656,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7651,7 +7667,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7662,7 +7678,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7673,7 +7689,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7684,7 +7700,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7695,7 +7711,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7706,7 +7722,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7717,7 +7733,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7728,7 +7744,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7739,7 +7755,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7750,7 +7766,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7761,7 +7777,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7772,7 +7788,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7783,7 +7799,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7794,7 +7810,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7805,7 +7821,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7816,7 +7832,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7827,7 +7843,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7838,7 +7854,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7849,7 +7865,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7860,7 +7876,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7871,7 +7887,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7882,7 +7898,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7893,7 +7909,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7904,7 +7920,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7915,7 +7931,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7926,7 +7942,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7937,7 +7953,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7948,7 +7964,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7959,7 +7975,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7970,7 +7986,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7981,7 +7997,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7992,7 +8008,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8003,7 +8019,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8014,7 +8030,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8025,7 +8041,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8036,7 +8052,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8047,7 +8063,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8058,7 +8074,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8069,7 +8085,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8080,7 +8096,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8091,7 +8107,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8102,7 +8118,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8113,7 +8129,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8124,7 +8140,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8135,7 +8151,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8146,7 +8162,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8157,7 +8173,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8168,7 +8184,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8179,7 +8195,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8190,7 +8206,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8201,7 +8217,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8212,7 +8228,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8223,7 +8239,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8234,7 +8250,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8245,7 +8261,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8256,7 +8272,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8267,7 +8283,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8278,7 +8294,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8289,7 +8305,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8300,7 +8316,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8311,7 +8327,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8322,7 +8338,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8333,7 +8349,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8344,7 +8360,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8355,7 +8371,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8366,7 +8382,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8377,7 +8393,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8388,7 +8404,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8399,7 +8415,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8410,7 +8426,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8421,7 +8437,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8432,7 +8448,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8443,7 +8459,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8454,7 +8470,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8465,7 +8481,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8476,7 +8492,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8487,7 +8503,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8498,7 +8514,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8509,7 +8525,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8520,7 +8536,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8531,7 +8547,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8542,7 +8558,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8553,7 +8569,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8564,7 +8580,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8575,7 +8591,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8586,7 +8602,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8597,7 +8613,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8608,7 +8624,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8619,7 +8635,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8630,7 +8646,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8641,7 +8657,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8652,7 +8668,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8663,7 +8679,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8674,7 +8690,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8685,7 +8701,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -8696,7 +8712,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -8707,7 +8723,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -8718,7 +8734,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8729,7 +8745,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8740,7 +8756,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8751,7 +8767,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8762,7 +8778,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -8773,7 +8789,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -8784,7 +8800,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -8795,7 +8811,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -8806,7 +8822,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -8817,7 +8833,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -8828,7 +8844,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -8839,7 +8855,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -8850,7 +8866,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -8861,7 +8877,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -8872,7 +8888,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -8883,7 +8899,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -8894,7 +8910,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -8905,7 +8921,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8916,7 +8932,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8927,7 +8943,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8938,7 +8954,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8949,7 +8965,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8960,7 +8976,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8971,7 +8987,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8982,7 +8998,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8993,7 +9009,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -9004,7 +9020,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -9015,7 +9031,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -9026,7 +9042,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -9037,7 +9053,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -9048,7 +9064,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -9059,7 +9075,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -9070,7 +9086,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -9081,7 +9097,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -9092,7 +9108,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -9103,7 +9119,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -9114,7 +9130,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -9125,7 +9141,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -9136,7 +9152,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -9147,7 +9163,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -9158,7 +9174,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -9169,7 +9185,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -9180,7 +9196,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -9191,7 +9207,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -9202,7 +9218,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -9213,7 +9229,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -9224,7 +9240,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -9235,7 +9251,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -9246,7 +9262,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -9257,7 +9273,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -9268,7 +9284,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -9279,7 +9295,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -9290,7 +9306,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9301,7 +9317,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9312,7 +9328,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9323,7 +9339,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9334,7 +9350,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -9345,7 +9361,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -9356,7 +9372,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -9367,7 +9383,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -9378,7 +9394,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -9389,7 +9405,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -9400,7 +9416,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -9411,7 +9427,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -9422,7 +9438,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -9433,7 +9449,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -9444,7 +9460,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -9455,7 +9471,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -9466,7 +9482,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -9477,7 +9493,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -9488,7 +9504,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -9499,7 +9515,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -9510,7 +9526,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -9521,7 +9537,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -9532,7 +9548,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -9543,7 +9559,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -9554,7 +9570,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -9565,7 +9581,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9576,7 +9592,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9587,7 +9603,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9598,7 +9614,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9609,7 +9625,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9620,7 +9636,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -9631,7 +9647,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -9642,7 +9658,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -9653,7 +9669,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -9664,7 +9680,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -9675,7 +9691,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -9686,7 +9702,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -9697,7 +9713,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -9708,7 +9724,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -9719,7 +9735,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -9730,7 +9746,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -9741,7 +9757,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -9752,7 +9768,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -9763,7 +9779,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -9774,7 +9790,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -9785,7 +9801,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -9796,7 +9812,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -9807,7 +9823,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -9818,7 +9834,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -9829,7 +9845,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -9840,7 +9856,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -9851,7 +9867,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -9862,7 +9878,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -9873,7 +9889,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -9884,7 +9900,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -9895,7 +9911,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -9906,7 +9922,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -9917,7 +9933,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -9928,7 +9944,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9939,7 +9955,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -9950,7 +9966,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -9961,7 +9977,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -9972,7 +9988,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -9983,7 +9999,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -9994,7 +10010,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -10005,7 +10021,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -10016,7 +10032,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -10027,7 +10043,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -10038,7 +10054,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -10049,7 +10065,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -10060,7 +10076,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -10071,7 +10087,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -10082,7 +10098,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -10093,7 +10109,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -10104,7 +10120,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -10115,7 +10131,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -10126,7 +10142,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -10137,7 +10153,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -10148,7 +10164,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -10159,7 +10175,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -10170,7 +10186,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -10181,7 +10197,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -10192,7 +10208,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -10203,7 +10219,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -10214,7 +10230,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -10225,7 +10241,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -10236,7 +10252,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -10247,7 +10263,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -10258,7 +10274,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -10269,7 +10285,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -10280,7 +10296,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -10291,7 +10307,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -10302,7 +10318,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -10313,7 +10329,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -10324,7 +10340,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -10335,7 +10351,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -10346,7 +10362,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -10357,7 +10373,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -10368,7 +10384,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -10379,7 +10395,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -10390,7 +10406,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -10401,7 +10417,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -10412,7 +10428,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -10423,7 +10439,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -10434,7 +10450,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -10445,7 +10461,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -10456,7 +10472,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -10467,7 +10483,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -10478,7 +10494,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -10489,7 +10505,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -10500,7 +10516,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -10511,7 +10527,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -10522,7 +10538,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -10533,7 +10549,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -10544,7 +10560,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -10555,7 +10571,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -10566,7 +10582,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -10577,7 +10593,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -10588,7 +10604,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -10599,7 +10615,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -10610,7 +10626,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -10621,7 +10637,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -10632,7 +10648,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -10643,7 +10659,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -10654,7 +10670,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -10665,7 +10681,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -10676,7 +10692,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -10687,7 +10703,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -10698,7 +10714,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -10709,7 +10725,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -10720,7 +10736,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -10731,7 +10747,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -10742,7 +10758,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -10753,7 +10769,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -10764,7 +10780,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -10775,7 +10791,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -10786,7 +10802,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -10797,7 +10813,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -10808,7 +10824,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -10819,7 +10835,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -10830,7 +10846,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -10841,7 +10857,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -10852,7 +10868,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -10863,7 +10879,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -10874,7 +10890,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -10885,7 +10901,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -10896,7 +10912,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -10907,7 +10923,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -10918,7 +10934,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -10929,7 +10945,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10940,7 +10956,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10951,7 +10967,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10962,7 +10978,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10973,7 +10989,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10984,7 +11000,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10995,7 +11011,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -11006,7 +11022,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -11017,7 +11033,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -11028,7 +11044,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -11039,7 +11055,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -11050,7 +11066,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -11061,7 +11077,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -11072,7 +11088,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -11083,7 +11099,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -11094,7 +11110,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -11105,7 +11121,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -11116,7 +11132,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -11127,7 +11143,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -11138,7 +11154,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -11149,7 +11165,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -11160,7 +11176,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -11171,7 +11187,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -11182,7 +11198,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -11193,7 +11209,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -11204,7 +11220,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -11215,7 +11231,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -11226,7 +11242,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -11237,7 +11253,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -11248,7 +11264,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -11259,7 +11275,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -11270,7 +11286,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -11281,7 +11297,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -11292,7 +11308,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -11303,7 +11319,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -11314,7 +11330,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -11325,7 +11341,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -11336,7 +11352,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -11347,7 +11363,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -11358,7 +11374,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -11369,7 +11385,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -11380,7 +11396,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -11391,7 +11407,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -11402,7 +11418,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -11413,7 +11429,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11424,7 +11440,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11435,7 +11451,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11446,7 +11462,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11457,7 +11473,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11468,7 +11484,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11479,7 +11495,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11490,7 +11506,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11501,7 +11517,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11512,7 +11528,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11523,7 +11539,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11534,7 +11550,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11545,7 +11561,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11556,7 +11572,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11567,7 +11583,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11578,7 +11594,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11589,7 +11605,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11600,7 +11616,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11611,7 +11627,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11622,7 +11638,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11633,7 +11649,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11644,7 +11660,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11655,7 +11671,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11666,7 +11682,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11677,7 +11693,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11688,7 +11704,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11699,7 +11715,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11710,7 +11726,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11721,7 +11737,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11732,7 +11748,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11743,7 +11759,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11754,7 +11770,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11765,7 +11781,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11776,7 +11792,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11787,7 +11803,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11798,7 +11814,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11809,7 +11825,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11820,7 +11836,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11831,7 +11847,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11842,7 +11858,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11853,7 +11869,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11864,7 +11880,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11875,7 +11891,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11886,7 +11902,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -11897,7 +11913,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -11908,7 +11924,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -11919,7 +11935,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -11930,7 +11946,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -11941,7 +11957,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -11952,7 +11968,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -11963,7 +11979,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -11974,7 +11990,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -11985,7 +12001,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -11996,7 +12012,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -12007,7 +12023,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -12018,7 +12034,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -12029,7 +12045,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -12040,7 +12056,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -12051,7 +12067,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -12062,7 +12078,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -12073,7 +12089,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -12084,7 +12100,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -12095,7 +12111,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -12106,7 +12122,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -12117,7 +12133,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -12128,7 +12144,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -12139,7 +12155,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -12150,7 +12166,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -12161,7 +12177,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -12172,7 +12188,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -12183,7 +12199,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -12194,7 +12210,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -12205,7 +12221,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -12216,7 +12232,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -12227,7 +12243,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -12238,7 +12254,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -12249,7 +12265,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -12260,7 +12276,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -12271,7 +12287,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -12282,7 +12298,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -12293,7 +12309,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -12304,7 +12320,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -12315,7 +12331,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -12326,7 +12342,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -12337,7 +12353,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -12348,7 +12364,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -12359,7 +12375,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -12370,7 +12386,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -12381,7 +12397,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -12392,7 +12408,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -12403,7 +12419,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -12414,7 +12430,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -12425,7 +12441,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -12436,7 +12452,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -12447,7 +12463,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -12458,7 +12474,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -12469,7 +12485,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -12480,7 +12496,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -12491,7 +12507,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -12502,7 +12518,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -12513,7 +12529,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -12524,7 +12540,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -12535,7 +12551,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -12546,7 +12562,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -12557,7 +12573,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -12568,7 +12584,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -12579,7 +12595,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -12590,7 +12606,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -12601,7 +12617,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -12612,7 +12628,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -12623,7 +12639,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -12634,7 +12650,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -12645,7 +12661,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -12656,7 +12672,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -12667,7 +12683,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -12678,7 +12694,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -12689,7 +12705,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -12700,7 +12716,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -12711,7 +12727,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -12722,7 +12738,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -12733,7 +12749,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -12744,7 +12760,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -12755,7 +12771,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -12766,7 +12782,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -12777,7 +12793,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -12788,7 +12804,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -12799,7 +12815,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -12810,7 +12826,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -12821,7 +12837,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -12832,7 +12848,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -12843,7 +12859,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -12854,7 +12870,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -12865,7 +12881,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -12876,7 +12892,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -12887,7 +12903,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -12898,7 +12914,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -12909,7 +12925,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -12920,7 +12936,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -12931,7 +12947,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -12942,7 +12958,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -12953,7 +12969,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -12964,7 +12980,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -12975,7 +12991,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -12986,7 +13002,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -12997,7 +13013,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -13008,7 +13024,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -13019,7 +13035,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -13030,7 +13046,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -13041,7 +13057,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -13052,7 +13068,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -13063,7 +13079,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -13074,7 +13090,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -13085,7 +13101,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -13096,7 +13112,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -13107,7 +13123,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -13118,7 +13134,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -13129,7 +13145,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -13140,7 +13156,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -13151,7 +13167,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -13162,7 +13178,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -13173,7 +13189,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -13184,7 +13200,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -13195,7 +13211,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -13206,7 +13222,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -13217,7 +13233,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -13228,7 +13244,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -13239,7 +13255,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -13250,7 +13266,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -13261,7 +13277,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -13272,7 +13288,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -13283,7 +13299,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -13294,7 +13310,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -13305,7 +13321,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -13316,7 +13332,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -13327,7 +13343,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -13338,7 +13354,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -13349,7 +13365,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -13360,7 +13376,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -13371,7 +13387,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -13382,7 +13398,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -13393,7 +13409,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -13404,7 +13420,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -13415,7 +13431,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -13426,7 +13442,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -13437,7 +13453,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -13448,7 +13464,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -13459,7 +13475,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -13470,7 +13486,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -13481,7 +13497,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -13492,7 +13508,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -13503,7 +13519,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -13514,7 +13530,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -13525,7 +13541,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -13536,7 +13552,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -13547,7 +13563,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -13558,7 +13574,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -13569,7 +13585,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -13580,7 +13596,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -13591,7 +13607,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -13602,7 +13618,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -13613,7 +13629,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -13624,7 +13640,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -13635,7 +13651,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -13646,7 +13662,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -13657,7 +13673,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -13668,7 +13684,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -13679,7 +13695,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -13690,7 +13706,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -13701,7 +13717,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -13712,7 +13728,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -13723,7 +13739,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -13734,7 +13750,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -13745,7 +13761,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -13756,7 +13772,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -13767,7 +13783,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -13778,7 +13794,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -13789,7 +13805,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -13800,7 +13816,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -13811,7 +13827,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -13822,7 +13838,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -13833,7 +13849,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -13844,7 +13860,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -13855,7 +13871,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -13866,7 +13882,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -13877,7 +13893,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -13888,7 +13904,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -13899,7 +13915,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -13910,7 +13926,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -13921,7 +13937,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -13932,7 +13948,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -13943,7 +13959,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -13954,7 +13970,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -13965,7 +13981,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -13976,7 +13992,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -13987,7 +14003,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -13998,7 +14014,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -14009,7 +14025,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -14020,7 +14036,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -14031,7 +14047,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -14042,7 +14058,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -14053,7 +14069,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -14064,7 +14080,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -14075,7 +14091,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -14086,7 +14102,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -14097,7 +14113,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -14108,7 +14124,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -14119,7 +14135,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -14130,7 +14146,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -14141,7 +14157,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -14152,7 +14168,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -14163,7 +14179,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -14174,7 +14190,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -14185,7 +14201,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -14196,7 +14212,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -14207,7 +14223,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -14218,7 +14234,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -14229,7 +14245,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -14240,7 +14256,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -14251,7 +14267,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -14262,7 +14278,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -14273,7 +14289,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -14284,7 +14300,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -14295,7 +14311,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -14306,7 +14322,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -14317,7 +14333,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -14328,7 +14344,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -14339,7 +14355,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -14350,7 +14366,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -14361,7 +14377,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -14372,7 +14388,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -14383,7 +14399,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -14394,7 +14410,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -14405,7 +14421,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -14416,7 +14432,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -14427,7 +14443,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -14438,7 +14454,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -14449,7 +14465,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -14460,7 +14476,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -14471,7 +14487,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -14482,7 +14498,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -14493,7 +14509,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -14504,7 +14520,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -14515,7 +14531,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -14526,7 +14542,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -14537,7 +14553,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -14548,7 +14564,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -14559,7 +14575,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -14570,7 +14586,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -14581,7 +14597,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -14592,7 +14608,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -14603,7 +14619,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -14614,7 +14630,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -14625,7 +14641,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -14636,7 +14652,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -14647,7 +14663,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -14658,7 +14674,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -14669,7 +14685,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -14680,7 +14696,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -14691,7 +14707,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -14702,7 +14718,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -14713,7 +14729,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -14724,7 +14740,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -14735,7 +14751,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -14746,7 +14762,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -14757,7 +14773,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -14768,7 +14784,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -14779,7 +14795,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -14790,7 +14806,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -14801,7 +14817,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -14812,7 +14828,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -14823,7 +14839,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -14834,7 +14850,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -14845,7 +14861,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -14856,7 +14872,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -14867,7 +14883,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -14878,7 +14894,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -14889,7 +14905,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -14900,7 +14916,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -14911,7 +14927,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -14922,7 +14938,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -14933,7 +14949,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -14944,7 +14960,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -14955,7 +14971,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -14966,7 +14982,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -14977,7 +14993,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -14988,7 +15004,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -14999,7 +15015,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -15010,7 +15026,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -15021,7 +15037,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -15032,7 +15048,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -15043,7 +15059,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -15054,7 +15070,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -15065,7 +15081,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -15076,7 +15092,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -15087,7 +15103,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -15098,7 +15114,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -15109,7 +15125,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -15120,7 +15136,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -15131,7 +15147,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -15163,12 +15179,12 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1639</v>
       </c>
@@ -15176,7 +15192,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>392</v>
       </c>
@@ -15184,7 +15200,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>394</v>
       </c>
@@ -15192,7 +15208,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>396</v>
       </c>
@@ -15200,7 +15216,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>398</v>
       </c>
@@ -15208,7 +15224,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>400</v>
       </c>
@@ -15216,7 +15232,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>402</v>
       </c>
@@ -15224,7 +15240,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>404</v>
       </c>
@@ -15232,7 +15248,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>406</v>
       </c>
@@ -15240,7 +15256,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>408</v>
       </c>
@@ -15248,7 +15264,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>410</v>
       </c>
@@ -15256,7 +15272,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>412</v>
       </c>
@@ -15264,7 +15280,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>414</v>
       </c>
@@ -15272,7 +15288,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>416</v>
       </c>
@@ -15280,7 +15296,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>432</v>
       </c>
@@ -15288,7 +15304,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>434</v>
       </c>
@@ -15296,7 +15312,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>438</v>
       </c>
@@ -15304,7 +15320,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>440</v>
       </c>
@@ -15312,7 +15328,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>442</v>
       </c>
@@ -15320,7 +15336,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>444</v>
       </c>
@@ -15328,7 +15344,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>446</v>
       </c>
@@ -15336,7 +15352,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>448</v>
       </c>
@@ -15344,7 +15360,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>450</v>
       </c>
@@ -15352,7 +15368,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>452</v>
       </c>
@@ -15360,7 +15376,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>872</v>
       </c>
@@ -15368,7 +15384,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>874</v>
       </c>
@@ -15376,7 +15392,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>890</v>
       </c>
@@ -15384,7 +15400,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>894</v>
       </c>
@@ -15392,7 +15408,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>896</v>
       </c>
@@ -15400,7 +15416,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>898</v>
       </c>
@@ -15408,7 +15424,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>900</v>
       </c>
@@ -15416,7 +15432,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>902</v>
       </c>
@@ -15424,7 +15440,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>904</v>
       </c>
@@ -15432,7 +15448,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>908</v>
       </c>
@@ -15440,7 +15456,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>912</v>
       </c>
@@ -15448,7 +15464,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>916</v>
       </c>
@@ -15456,7 +15472,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>918</v>
       </c>
@@ -15464,7 +15480,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>920</v>
       </c>
@@ -15472,7 +15488,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>926</v>
       </c>
@@ -15480,7 +15496,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>930</v>
       </c>
@@ -15488,7 +15504,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>934</v>
       </c>
@@ -15496,7 +15512,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>938</v>
       </c>
@@ -15504,7 +15520,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>940</v>
       </c>
@@ -15512,7 +15528,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>942</v>
       </c>
@@ -15520,7 +15536,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>944</v>
       </c>
@@ -15528,7 +15544,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>946</v>
       </c>
@@ -15536,7 +15552,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>950</v>
       </c>
@@ -15544,7 +15560,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>1306</v>
       </c>
@@ -15552,7 +15568,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>1310</v>
       </c>
@@ -15560,7 +15576,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>1312</v>
       </c>
@@ -15568,7 +15584,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>1316</v>
       </c>
@@ -15576,7 +15592,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>1318</v>
       </c>
@@ -15584,7 +15600,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>1320</v>
       </c>
@@ -15592,7 +15608,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1322</v>
       </c>
@@ -15600,7 +15616,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1326</v>
       </c>
@@ -15608,7 +15624,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1328</v>
       </c>
@@ -15616,7 +15632,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1330</v>
       </c>
@@ -15624,7 +15640,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>1332</v>
       </c>
@@ -15632,7 +15648,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>1334</v>
       </c>
@@ -15640,7 +15656,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>1336</v>
       </c>
@@ -15648,7 +15664,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>1338</v>
       </c>
@@ -15656,7 +15672,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>1340</v>
       </c>
@@ -15664,7 +15680,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>1342</v>
       </c>
@@ -15672,7 +15688,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>1344</v>
       </c>
@@ -15680,7 +15696,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>1346</v>
       </c>
@@ -15688,7 +15704,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1350</v>
       </c>
@@ -15696,7 +15712,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1356</v>
       </c>
@@ -15704,7 +15720,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1358</v>
       </c>
@@ -15712,7 +15728,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1360</v>
       </c>
@@ -15720,7 +15736,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>1366</v>
       </c>
@@ -15728,7 +15744,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>1368</v>
       </c>
@@ -15736,7 +15752,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>1370</v>
       </c>
@@ -15744,7 +15760,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>1372</v>
       </c>
@@ -15752,7 +15768,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>1376</v>
       </c>
@@ -15760,7 +15776,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>1378</v>
       </c>
@@ -15768,7 +15784,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>1380</v>
       </c>
@@ -15776,7 +15792,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>1382</v>
       </c>
@@ -15800,15 +15816,15 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1600</v>
       </c>
@@ -15816,7 +15832,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1601</v>
       </c>
@@ -15824,7 +15840,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1604</v>
       </c>
@@ -15832,7 +15848,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>1074</v>
       </c>
@@ -15840,7 +15856,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>622</v>
       </c>
@@ -15848,7 +15864,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>618</v>
       </c>
@@ -15856,17 +15872,17 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>1611</v>
       </c>
@@ -15874,7 +15890,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -15882,7 +15898,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>660</v>
       </c>
@@ -15890,7 +15906,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>1615</v>
       </c>
@@ -15898,17 +15914,17 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>600</v>
       </c>
@@ -15916,7 +15932,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>1619</v>
       </c>
@@ -15924,7 +15940,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>1621</v>
       </c>
@@ -15932,7 +15948,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>1623</v>
       </c>
@@ -15940,7 +15956,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>606</v>
       </c>
@@ -15948,7 +15964,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>1626</v>
       </c>
@@ -15956,22 +15972,22 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>1631</v>
       </c>
@@ -15979,7 +15995,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>1634</v>
       </c>
@@ -15987,12 +16003,12 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>1636</v>
       </c>
@@ -16000,7 +16016,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>1638</v>
       </c>
@@ -16018,26 +16034,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC944D-C38C-4479-A2AA-B5B777D146F4}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="2" customWidth="1"/>
-    <col min="4" max="4" width="80.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="80.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1659</v>
       </c>
@@ -16063,7 +16079,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1732</v>
       </c>
@@ -16086,7 +16102,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1661</v>
       </c>
@@ -16108,7 +16124,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1680</v>
       </c>
@@ -16130,7 +16146,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1831</v>
       </c>
@@ -16149,7 +16165,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1707</v>
       </c>
@@ -16173,7 +16189,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1707</v>
       </c>
@@ -16188,7 +16204,7 @@
       <c r="G7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>1726</v>
       </c>
@@ -16212,7 +16228,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>1683</v>
       </c>
@@ -16236,7 +16252,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>1761</v>
       </c>
@@ -16259,7 +16275,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1651</v>
       </c>
@@ -16280,7 +16296,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16292,7 +16308,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>1670</v>
       </c>
@@ -16313,7 +16329,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>1669</v>
       </c>
@@ -16334,7 +16350,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16343,7 +16359,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16364,7 +16380,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>1691</v>
       </c>
@@ -16373,7 +16389,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1609</v>
       </c>
@@ -16396,7 +16412,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16417,7 +16433,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16431,7 +16447,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>1731</v>
       </c>
@@ -16443,7 +16459,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16466,7 +16482,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16480,7 +16496,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1622</v>
       </c>
@@ -16492,7 +16508,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>1749</v>
       </c>
@@ -16512,7 +16528,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16532,7 +16548,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>1687</v>
       </c>
@@ -16552,7 +16568,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1652</v>
       </c>
@@ -16572,7 +16588,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>1741</v>
       </c>
@@ -16595,7 +16611,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>1685</v>
       </c>
@@ -16618,7 +16634,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>1751</v>
       </c>
@@ -16641,7 +16657,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16662,7 +16678,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>1699</v>
       </c>
@@ -16674,7 +16690,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16695,7 +16711,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>1694</v>
       </c>
@@ -16707,7 +16723,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16728,7 +16744,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16737,7 +16753,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>1679</v>
       </c>
@@ -16746,7 +16762,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1753</v>
       </c>
@@ -16767,7 +16783,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>1667</v>
       </c>
@@ -16790,7 +16806,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>1696</v>
       </c>
@@ -16811,7 +16827,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16832,7 +16848,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>1650</v>
       </c>
@@ -16844,7 +16860,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>1665</v>
       </c>
@@ -16867,7 +16883,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>1726</v>
       </c>
@@ -16890,7 +16906,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16909,7 +16925,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>1709</v>
       </c>
@@ -16918,7 +16934,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>1712</v>
       </c>
@@ -16939,7 +16955,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1663</v>
       </c>
@@ -16960,7 +16976,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>1701</v>
       </c>
@@ -16981,7 +16997,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>1675</v>
       </c>
@@ -17002,7 +17018,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>1675</v>
       </c>
@@ -17014,7 +17030,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>1703</v>
       </c>
@@ -17035,7 +17051,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>1654</v>
       </c>
@@ -17053,7 +17069,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>1654</v>
       </c>
@@ -17065,7 +17081,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>1654</v>
       </c>
@@ -17077,7 +17093,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>1747</v>
       </c>
@@ -17095,7 +17111,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17107,7 +17123,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17119,7 +17135,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17131,7 +17147,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17143,7 +17159,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>452</v>
       </c>
@@ -17161,7 +17177,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>452</v>
       </c>
@@ -17179,7 +17195,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>452</v>
       </c>
@@ -17191,7 +17207,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>452</v>
       </c>
@@ -17203,7 +17219,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1705</v>
       </c>
@@ -17221,7 +17237,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>1714</v>
       </c>
@@ -17244,7 +17260,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>1714</v>
       </c>
@@ -17258,7 +17274,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>1714</v>
       </c>
@@ -17272,7 +17288,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1714</v>
       </c>
@@ -17286,7 +17302,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>1724</v>
       </c>
@@ -17309,7 +17325,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17330,7 +17346,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17342,7 +17358,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17356,7 +17372,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17377,7 +17393,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17391,7 +17407,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>448</v>
       </c>
@@ -17412,7 +17428,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>1823</v>
       </c>
@@ -17421,7 +17437,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>1824</v>
       </c>
@@ -17444,7 +17460,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>1827</v>
       </c>
@@ -17464,7 +17480,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>1827</v>
       </c>
@@ -17482,6 +17498,24 @@
       </c>
       <c r="G81" s="7" t="s">
         <v>1873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>1917</v>
       </c>
     </row>
   </sheetData>
@@ -17506,11 +17540,13 @@
     <hyperlink ref="G48" r:id="rId17" xr:uid="{3C1DCE56-55D9-44A5-85F5-00D1C5496012}"/>
     <hyperlink ref="H10" r:id="rId18" xr:uid="{4AF5B4D8-BF0D-43E5-B18C-97F97090EB3A}"/>
     <hyperlink ref="G10" r:id="rId19" xr:uid="{BF16DD84-9AE8-4A58-939F-C68B34E56906}"/>
+    <hyperlink ref="H82" r:id="rId20" xr:uid="{C12C3366-52FB-6A42-98A1-F4D2EB64B47C}"/>
+    <hyperlink ref="G82" r:id="rId21" xr:uid="{F84C9AE7-E47A-4F40-A757-19B9FB43DC6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
